--- a/Data/HeatWaves_Europe_1900-2020.xlsx
+++ b/Data/HeatWaves_Europe_1900-2020.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MDA_GitHub_Projects\mda_heatwaves-cameroon\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EBDCB-FCE2-413C-9F24-1BF1324CB506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="2325" yWindow="3075" windowWidth="15375" windowHeight="8325" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="emdat data" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="emdat data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="331">
   <si>
     <t>Source:</t>
   </si>
@@ -195,7 +210,7 @@
     <t>Meteorological</t>
   </si>
   <si>
-    <t>Extreme temperature </t>
+    <t>Extreme temperature</t>
   </si>
   <si>
     <t>Heat wave</t>
@@ -1014,23 +1029,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,12 +1052,9 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDDDEE"/>
+        <fgColor rgb="FFDDDDEE"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1053,21 +1063,31 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1392,83 +1412,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="35" max="35" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
-      <c r="E1" t="s"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-    </row>
-    <row r="3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-    </row>
-    <row r="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-    </row>
-    <row r="5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-    </row>
-    <row r="6">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-    </row>
-    <row r="7">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1621,8 +1646,6 @@
       <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
       <c r="J8" t="s">
         <v>61</v>
       </c>
@@ -1641,21 +1664,9 @@
       <c r="O8" t="s">
         <v>66</v>
       </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
       <c r="X8" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
       <c r="AC8">
         <v>1985</v>
       </c>
@@ -1677,18 +1688,11 @@
       <c r="AI8">
         <v>20</v>
       </c>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
       <c r="AQ8">
-        <v>42.0745267678182</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>42.074526767818199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1710,8 +1714,6 @@
       <c r="G9" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
       <c r="J9" t="s">
         <v>61</v>
       </c>
@@ -1727,28 +1729,18 @@
       <c r="N9" t="s">
         <v>65</v>
       </c>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
       <c r="T9" t="s">
         <v>71</v>
       </c>
       <c r="U9" t="s">
         <v>71</v>
       </c>
-      <c r="V9" t="s"/>
       <c r="W9">
         <v>41</v>
       </c>
       <c r="X9" t="s">
         <v>67</v>
       </c>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
       <c r="AC9">
         <v>1987</v>
       </c>
@@ -1770,18 +1762,11 @@
       <c r="AI9">
         <v>1000</v>
       </c>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
       <c r="AQ9">
-        <v>44.44423842484</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>44.444238424840002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1803,8 +1788,6 @@
       <c r="G10" t="s">
         <v>60</v>
       </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
       <c r="J10" t="s">
         <v>61</v>
       </c>
@@ -1820,22 +1803,9 @@
       <c r="N10" t="s">
         <v>65</v>
       </c>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
       <c r="X10" t="s">
         <v>67</v>
       </c>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
       <c r="AC10">
         <v>1988</v>
       </c>
@@ -1857,18 +1827,11 @@
       <c r="AI10">
         <v>56</v>
       </c>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
       <c r="AQ10">
-        <v>46.256556831435</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>46.256556831434999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1890,8 +1853,6 @@
       <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
       <c r="J11" t="s">
         <v>61</v>
       </c>
@@ -1910,21 +1871,9 @@
       <c r="O11" t="s">
         <v>79</v>
       </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
       <c r="X11" t="s">
         <v>67</v>
       </c>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
       <c r="AC11">
         <v>1988</v>
       </c>
@@ -1946,18 +1895,11 @@
       <c r="AI11">
         <v>38</v>
       </c>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
       <c r="AQ11">
-        <v>46.256556831435</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>46.256556831434999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1979,8 +1921,6 @@
       <c r="G12" t="s">
         <v>60</v>
       </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
       <c r="J12" t="s">
         <v>83</v>
       </c>
@@ -1999,23 +1939,12 @@
       <c r="O12" t="s">
         <v>87</v>
       </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
       <c r="W12">
         <v>40</v>
       </c>
       <c r="X12" t="s">
         <v>67</v>
       </c>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
       <c r="AC12">
         <v>1990</v>
       </c>
@@ -2037,18 +1966,11 @@
       <c r="AI12">
         <v>5</v>
       </c>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
       <c r="AQ12">
-        <v>51.1067950003987</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>51.106795000398698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -2070,8 +1992,6 @@
       <c r="G13" t="s">
         <v>60</v>
       </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
       <c r="J13" t="s">
         <v>83</v>
       </c>
@@ -2087,51 +2007,29 @@
       <c r="N13" t="s">
         <v>65</v>
       </c>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
       <c r="W13">
         <v>60</v>
       </c>
       <c r="X13" t="s">
         <v>67</v>
       </c>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
       <c r="AC13">
         <v>1994</v>
       </c>
       <c r="AD13">
         <v>5</v>
       </c>
-      <c r="AE13" t="s"/>
       <c r="AF13">
         <v>1994</v>
       </c>
       <c r="AG13">
         <v>5</v>
       </c>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
       <c r="AQ13">
-        <v>57.9779742380726</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>57.977974238072598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2153,8 +2051,6 @@
       <c r="G14" t="s">
         <v>60</v>
       </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
       <c r="J14" t="s">
         <v>61</v>
       </c>
@@ -2173,23 +2069,12 @@
       <c r="O14" t="s">
         <v>99</v>
       </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
       <c r="W14">
         <v>47</v>
       </c>
       <c r="X14" t="s">
         <v>67</v>
       </c>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
       <c r="AC14">
         <v>1995</v>
       </c>
@@ -2214,19 +2099,14 @@
       <c r="AJ14">
         <v>70</v>
       </c>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
       <c r="AM14">
         <v>70</v>
       </c>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
       <c r="AQ14">
-        <v>59.6044948945252</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>59.604494894525203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2248,8 +2128,6 @@
       <c r="G15" t="s">
         <v>60</v>
       </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
       <c r="J15" t="s">
         <v>61</v>
       </c>
@@ -2265,24 +2143,12 @@
       <c r="N15" t="s">
         <v>65</v>
       </c>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
       <c r="W15">
         <v>40</v>
       </c>
       <c r="X15" t="s">
         <v>67</v>
       </c>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
       <c r="AC15">
         <v>1996</v>
       </c>
@@ -2307,19 +2173,14 @@
       <c r="AJ15">
         <v>200</v>
       </c>
-      <c r="AK15" t="s"/>
-      <c r="AL15" t="s"/>
       <c r="AM15">
         <v>200</v>
       </c>
-      <c r="AN15" t="s"/>
-      <c r="AO15" t="s"/>
-      <c r="AP15" t="s"/>
       <c r="AQ15">
-        <v>61.3516297283817</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>61.351629728381702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2341,8 +2202,6 @@
       <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
       <c r="J16" t="s">
         <v>61</v>
       </c>
@@ -2361,23 +2220,12 @@
       <c r="O16" t="s">
         <v>108</v>
       </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
-      <c r="V16" t="s"/>
       <c r="W16">
         <v>46</v>
       </c>
       <c r="X16" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" t="s"/>
-      <c r="Z16" t="s"/>
-      <c r="AA16" t="s"/>
-      <c r="AB16" t="s"/>
       <c r="AC16">
         <v>1998</v>
       </c>
@@ -2399,18 +2247,11 @@
       <c r="AI16">
         <v>10</v>
       </c>
-      <c r="AJ16" t="s"/>
-      <c r="AK16" t="s"/>
-      <c r="AL16" t="s"/>
-      <c r="AM16" t="s"/>
-      <c r="AN16" t="s"/>
-      <c r="AO16" t="s"/>
-      <c r="AP16" t="s"/>
       <c r="AQ16">
-        <v>63.7604552373995</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>63.760455237399498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -2432,8 +2273,6 @@
       <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
       <c r="J17" t="s">
         <v>61</v>
       </c>
@@ -2449,24 +2288,12 @@
       <c r="N17" t="s">
         <v>65</v>
       </c>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
-      <c r="V17" t="s"/>
       <c r="W17">
         <v>39</v>
       </c>
       <c r="X17" t="s">
         <v>67</v>
       </c>
-      <c r="Y17" t="s"/>
-      <c r="Z17" t="s"/>
-      <c r="AA17" t="s"/>
-      <c r="AB17" t="s"/>
       <c r="AC17">
         <v>1998</v>
       </c>
@@ -2488,18 +2315,11 @@
       <c r="AI17">
         <v>20</v>
       </c>
-      <c r="AJ17" t="s"/>
-      <c r="AK17" t="s"/>
-      <c r="AL17" t="s"/>
-      <c r="AM17" t="s"/>
-      <c r="AN17" t="s"/>
-      <c r="AO17" t="s"/>
-      <c r="AP17" t="s"/>
       <c r="AQ17">
-        <v>63.7604552373995</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>63.760455237399498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -2521,8 +2341,6 @@
       <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s"/>
       <c r="J18" t="s">
         <v>61</v>
       </c>
@@ -2541,21 +2359,9 @@
       <c r="O18" t="s">
         <v>115</v>
       </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
-      <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
-      <c r="V18" t="s"/>
-      <c r="W18" t="s"/>
       <c r="X18" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" t="s"/>
-      <c r="Z18" t="s"/>
-      <c r="AA18" t="s"/>
-      <c r="AB18" t="s"/>
       <c r="AC18">
         <v>1995</v>
       </c>
@@ -2577,18 +2383,11 @@
       <c r="AI18">
         <v>20</v>
       </c>
-      <c r="AJ18" t="s"/>
-      <c r="AK18" t="s"/>
-      <c r="AL18" t="s"/>
-      <c r="AM18" t="s"/>
-      <c r="AN18" t="s"/>
-      <c r="AO18" t="s"/>
-      <c r="AP18" t="s"/>
       <c r="AQ18">
-        <v>59.6044948945252</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>59.604494894525203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -2610,8 +2409,6 @@
       <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
       <c r="J19" t="s">
         <v>83</v>
       </c>
@@ -2630,54 +2427,35 @@
       <c r="O19" t="s">
         <v>121</v>
       </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="s"/>
       <c r="W19">
         <v>43</v>
       </c>
       <c r="X19" t="s">
         <v>67</v>
       </c>
-      <c r="Y19" t="s"/>
-      <c r="Z19" t="s"/>
-      <c r="AA19" t="s"/>
-      <c r="AB19" t="s"/>
       <c r="AC19">
         <v>2000</v>
       </c>
       <c r="AD19">
         <v>6</v>
       </c>
-      <c r="AE19" t="s"/>
       <c r="AF19">
         <v>2000</v>
       </c>
       <c r="AG19">
         <v>7</v>
       </c>
-      <c r="AH19" t="s"/>
       <c r="AI19">
         <v>7</v>
       </c>
-      <c r="AJ19" t="s"/>
-      <c r="AK19" t="s"/>
-      <c r="AL19" t="s"/>
-      <c r="AM19" t="s"/>
-      <c r="AN19" t="s"/>
-      <c r="AO19" t="s"/>
       <c r="AP19">
         <v>50</v>
       </c>
       <c r="AQ19">
-        <v>67.355758979313</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>67.355758979312995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -2699,8 +2477,6 @@
       <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s"/>
       <c r="J20" t="s">
         <v>61</v>
       </c>
@@ -2716,22 +2492,9 @@
       <c r="N20" t="s">
         <v>65</v>
       </c>
-      <c r="O20" t="s"/>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
-      <c r="V20" t="s"/>
-      <c r="W20" t="s"/>
       <c r="X20" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" t="s"/>
-      <c r="Z20" t="s"/>
-      <c r="AA20" t="s"/>
-      <c r="AB20" t="s"/>
       <c r="AC20">
         <v>1999</v>
       </c>
@@ -2753,18 +2516,11 @@
       <c r="AI20">
         <v>32</v>
       </c>
-      <c r="AJ20" t="s"/>
-      <c r="AK20" t="s"/>
-      <c r="AL20" t="s"/>
-      <c r="AM20" t="s"/>
-      <c r="AN20" t="s"/>
-      <c r="AO20" t="s"/>
-      <c r="AP20" t="s"/>
       <c r="AQ20">
-        <v>65.1555468615283</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>65.155546861528293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -2786,8 +2542,6 @@
       <c r="G21" t="s">
         <v>60</v>
       </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
       <c r="J21" t="s">
         <v>130</v>
       </c>
@@ -2806,58 +2560,41 @@
       <c r="O21" t="s">
         <v>131</v>
       </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="s"/>
       <c r="W21">
         <v>44</v>
       </c>
       <c r="X21" t="s">
         <v>67</v>
       </c>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="s"/>
-      <c r="AA21" t="s"/>
-      <c r="AB21" t="s"/>
       <c r="AC21">
         <v>2000</v>
       </c>
       <c r="AD21">
         <v>7</v>
       </c>
-      <c r="AE21" t="s"/>
       <c r="AF21">
         <v>2000</v>
       </c>
       <c r="AG21">
         <v>7</v>
       </c>
-      <c r="AH21" t="s"/>
       <c r="AI21">
         <v>27</v>
       </c>
       <c r="AJ21">
         <v>176</v>
       </c>
-      <c r="AK21" t="s"/>
-      <c r="AL21" t="s"/>
       <c r="AM21">
         <v>176</v>
       </c>
-      <c r="AN21" t="s"/>
-      <c r="AO21" t="s"/>
       <c r="AP21">
         <v>3000</v>
       </c>
       <c r="AQ21">
-        <v>67.355758979313</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>67.355758979312995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -2879,8 +2616,6 @@
       <c r="G22" t="s">
         <v>60</v>
       </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s"/>
       <c r="J22" t="s">
         <v>61</v>
       </c>
@@ -2899,58 +2634,41 @@
       <c r="O22" t="s">
         <v>136</v>
       </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
-      <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
-      <c r="V22" t="s"/>
       <c r="W22">
         <v>35</v>
       </c>
       <c r="X22" t="s">
         <v>67</v>
       </c>
-      <c r="Y22" t="s"/>
-      <c r="Z22" t="s"/>
-      <c r="AA22" t="s"/>
-      <c r="AB22" t="s"/>
       <c r="AC22">
         <v>2000</v>
       </c>
       <c r="AD22">
         <v>6</v>
       </c>
-      <c r="AE22" t="s"/>
       <c r="AF22">
         <v>2000</v>
       </c>
       <c r="AG22">
         <v>6</v>
       </c>
-      <c r="AH22" t="s"/>
       <c r="AI22">
         <v>40</v>
       </c>
       <c r="AJ22">
         <v>200</v>
       </c>
-      <c r="AK22" t="s"/>
-      <c r="AL22" t="s"/>
       <c r="AM22">
         <v>200</v>
       </c>
-      <c r="AN22" t="s"/>
-      <c r="AO22" t="s"/>
       <c r="AP22">
         <v>240000</v>
       </c>
       <c r="AQ22">
-        <v>67.355758979313</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>67.355758979312995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2972,8 +2690,6 @@
       <c r="G23" t="s">
         <v>60</v>
       </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s"/>
       <c r="J23" t="s">
         <v>139</v>
       </c>
@@ -2992,56 +2708,38 @@
       <c r="O23" t="s">
         <v>140</v>
       </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
-      <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
-      <c r="V23" t="s"/>
       <c r="W23">
         <v>43</v>
       </c>
       <c r="X23" t="s">
         <v>67</v>
       </c>
-      <c r="Y23" t="s"/>
-      <c r="Z23" t="s"/>
-      <c r="AA23" t="s"/>
-      <c r="AB23" t="s"/>
       <c r="AC23">
         <v>2000</v>
       </c>
       <c r="AD23">
         <v>7</v>
       </c>
-      <c r="AE23" t="s"/>
       <c r="AF23">
         <v>2000</v>
       </c>
       <c r="AG23">
         <v>7</v>
       </c>
-      <c r="AH23" t="s"/>
       <c r="AI23">
         <v>6</v>
       </c>
       <c r="AJ23">
         <v>100</v>
       </c>
-      <c r="AK23" t="s"/>
-      <c r="AL23" t="s"/>
       <c r="AM23">
         <v>100</v>
       </c>
-      <c r="AN23" t="s"/>
-      <c r="AO23" t="s"/>
-      <c r="AP23" t="s"/>
       <c r="AQ23">
-        <v>67.355758979313</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>67.355758979312995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -3063,8 +2761,6 @@
       <c r="G24" t="s">
         <v>60</v>
       </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s"/>
       <c r="J24" t="s">
         <v>83</v>
       </c>
@@ -3083,56 +2779,38 @@
       <c r="O24" t="s">
         <v>145</v>
       </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
-      <c r="V24" t="s"/>
       <c r="W24">
         <v>42</v>
       </c>
       <c r="X24" t="s">
         <v>67</v>
       </c>
-      <c r="Y24" t="s"/>
-      <c r="Z24" t="s"/>
-      <c r="AA24" t="s"/>
-      <c r="AB24" t="s"/>
       <c r="AC24">
         <v>2000</v>
       </c>
       <c r="AD24">
         <v>7</v>
       </c>
-      <c r="AE24" t="s"/>
       <c r="AF24">
         <v>2000</v>
       </c>
       <c r="AG24">
         <v>7</v>
       </c>
-      <c r="AH24" t="s"/>
       <c r="AI24">
         <v>3</v>
       </c>
       <c r="AJ24">
         <v>70</v>
       </c>
-      <c r="AK24" t="s"/>
-      <c r="AL24" t="s"/>
       <c r="AM24">
         <v>70</v>
       </c>
-      <c r="AN24" t="s"/>
-      <c r="AO24" t="s"/>
-      <c r="AP24" t="s"/>
       <c r="AQ24">
-        <v>67.355758979313</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>67.355758979312995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -3154,8 +2832,6 @@
       <c r="G25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s"/>
       <c r="J25" t="s">
         <v>61</v>
       </c>
@@ -3174,52 +2850,32 @@
       <c r="O25" t="s">
         <v>149</v>
       </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="s"/>
       <c r="W25">
         <v>30</v>
       </c>
       <c r="X25" t="s">
         <v>67</v>
       </c>
-      <c r="Y25" t="s"/>
-      <c r="Z25" t="s"/>
-      <c r="AA25" t="s"/>
-      <c r="AB25" t="s"/>
       <c r="AC25">
         <v>2001</v>
       </c>
       <c r="AD25">
         <v>7</v>
       </c>
-      <c r="AE25" t="s"/>
       <c r="AF25">
         <v>2001</v>
       </c>
       <c r="AG25">
         <v>7</v>
       </c>
-      <c r="AH25" t="s"/>
       <c r="AI25">
         <v>276</v>
       </c>
-      <c r="AJ25" t="s"/>
-      <c r="AK25" t="s"/>
-      <c r="AL25" t="s"/>
-      <c r="AM25" t="s"/>
-      <c r="AN25" t="s"/>
-      <c r="AO25" t="s"/>
-      <c r="AP25" t="s"/>
       <c r="AQ25">
-        <v>69.259339950271</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>69.259339950270999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -3241,8 +2897,6 @@
       <c r="G26" t="s">
         <v>60</v>
       </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s"/>
       <c r="J26" t="s">
         <v>61</v>
       </c>
@@ -3261,56 +2915,38 @@
       <c r="O26" t="s">
         <v>155</v>
       </c>
-      <c r="P26" t="s"/>
       <c r="Q26" t="s">
         <v>156</v>
       </c>
       <c r="R26" t="s">
         <v>157</v>
       </c>
-      <c r="S26" t="s"/>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
-      <c r="V26" t="s"/>
-      <c r="W26" t="s"/>
       <c r="X26" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" t="s"/>
-      <c r="Z26" t="s"/>
-      <c r="AA26" t="s"/>
-      <c r="AB26" t="s"/>
       <c r="AC26">
         <v>2003</v>
       </c>
       <c r="AD26">
         <v>7</v>
       </c>
-      <c r="AE26" t="s"/>
       <c r="AF26">
         <v>2003</v>
       </c>
       <c r="AG26">
         <v>8</v>
       </c>
-      <c r="AH26" t="s"/>
       <c r="AI26">
         <v>345</v>
       </c>
-      <c r="AJ26" t="s"/>
-      <c r="AK26" t="s"/>
-      <c r="AL26" t="s"/>
-      <c r="AM26" t="s"/>
-      <c r="AN26" t="s"/>
-      <c r="AO26" t="s"/>
       <c r="AP26">
         <v>280000</v>
       </c>
       <c r="AQ26">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -3332,8 +2968,6 @@
       <c r="G27" t="s">
         <v>60</v>
       </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s"/>
       <c r="J27" t="s">
         <v>61</v>
       </c>
@@ -3352,23 +2986,12 @@
       <c r="O27" t="s">
         <v>161</v>
       </c>
-      <c r="P27" t="s"/>
       <c r="Q27" t="s">
         <v>157</v>
       </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
-      <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
-      <c r="V27" t="s"/>
-      <c r="W27" t="s"/>
       <c r="X27" t="s">
         <v>67</v>
       </c>
-      <c r="Y27" t="s"/>
-      <c r="Z27" t="s"/>
-      <c r="AA27" t="s"/>
-      <c r="AB27" t="s"/>
       <c r="AC27">
         <v>2003</v>
       </c>
@@ -3390,18 +3013,11 @@
       <c r="AI27">
         <v>1175</v>
       </c>
-      <c r="AJ27" t="s"/>
-      <c r="AK27" t="s"/>
-      <c r="AL27" t="s"/>
-      <c r="AM27" t="s"/>
-      <c r="AN27" t="s"/>
-      <c r="AO27" t="s"/>
-      <c r="AP27" t="s"/>
       <c r="AQ27">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -3423,8 +3039,6 @@
       <c r="G28" t="s">
         <v>60</v>
       </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s"/>
       <c r="J28" t="s">
         <v>61</v>
       </c>
@@ -3443,54 +3057,35 @@
       <c r="O28" t="s">
         <v>165</v>
       </c>
-      <c r="P28" t="s"/>
       <c r="Q28" t="s">
         <v>157</v>
       </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
-      <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
-      <c r="V28" t="s"/>
-      <c r="W28" t="s"/>
       <c r="X28" t="s">
         <v>67</v>
       </c>
-      <c r="Y28" t="s"/>
-      <c r="Z28" t="s"/>
-      <c r="AA28" t="s"/>
-      <c r="AB28" t="s"/>
       <c r="AC28">
         <v>2003</v>
       </c>
       <c r="AD28">
         <v>7</v>
       </c>
-      <c r="AE28" t="s"/>
       <c r="AF28">
         <v>2003</v>
       </c>
       <c r="AG28">
         <v>7</v>
       </c>
-      <c r="AH28" t="s"/>
       <c r="AI28">
         <v>1039</v>
       </c>
-      <c r="AJ28" t="s"/>
-      <c r="AK28" t="s"/>
-      <c r="AL28" t="s"/>
-      <c r="AM28" t="s"/>
-      <c r="AN28" t="s"/>
-      <c r="AO28" t="s"/>
       <c r="AP28">
         <v>280000</v>
       </c>
       <c r="AQ28">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -3512,8 +3107,6 @@
       <c r="G29" t="s">
         <v>60</v>
       </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s"/>
       <c r="J29" t="s">
         <v>61</v>
       </c>
@@ -3532,45 +3125,27 @@
       <c r="O29" t="s">
         <v>169</v>
       </c>
-      <c r="P29" t="s"/>
       <c r="Q29" t="s">
         <v>157</v>
       </c>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
-      <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
-      <c r="V29" t="s"/>
-      <c r="W29" t="s"/>
       <c r="X29" t="s">
         <v>67</v>
       </c>
-      <c r="Y29" t="s"/>
-      <c r="Z29" t="s"/>
-      <c r="AA29" t="s"/>
-      <c r="AB29" t="s"/>
       <c r="AC29">
         <v>2003</v>
       </c>
       <c r="AD29">
         <v>8</v>
       </c>
-      <c r="AE29" t="s"/>
       <c r="AF29">
         <v>2003</v>
       </c>
       <c r="AG29">
         <v>8</v>
       </c>
-      <c r="AH29" t="s"/>
       <c r="AI29">
         <v>9355</v>
       </c>
-      <c r="AJ29" t="s"/>
-      <c r="AK29" t="s"/>
-      <c r="AL29" t="s"/>
-      <c r="AM29" t="s"/>
-      <c r="AN29" t="s"/>
       <c r="AO29">
         <v>10000</v>
       </c>
@@ -3578,10 +3153,10 @@
         <v>1650000</v>
       </c>
       <c r="AQ29">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -3603,8 +3178,6 @@
       <c r="G30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s"/>
       <c r="J30" t="s">
         <v>61</v>
       </c>
@@ -3623,25 +3196,15 @@
       <c r="O30" t="s">
         <v>171</v>
       </c>
-      <c r="P30" t="s"/>
       <c r="Q30" t="s">
         <v>157</v>
       </c>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
-      <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
-      <c r="V30" t="s"/>
       <c r="W30">
         <v>40</v>
       </c>
       <c r="X30" t="s">
         <v>67</v>
       </c>
-      <c r="Y30" t="s"/>
-      <c r="Z30" t="s"/>
-      <c r="AA30" t="s"/>
-      <c r="AB30" t="s"/>
       <c r="AC30">
         <v>2003</v>
       </c>
@@ -3663,20 +3226,14 @@
       <c r="AI30">
         <v>15090</v>
       </c>
-      <c r="AJ30" t="s"/>
-      <c r="AK30" t="s"/>
-      <c r="AL30" t="s"/>
-      <c r="AM30" t="s"/>
-      <c r="AN30" t="s"/>
-      <c r="AO30" t="s"/>
       <c r="AP30">
         <v>880000</v>
       </c>
       <c r="AQ30">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -3698,8 +3255,6 @@
       <c r="G31" t="s">
         <v>60</v>
       </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s"/>
       <c r="J31" t="s">
         <v>61</v>
       </c>
@@ -3718,25 +3273,15 @@
       <c r="O31" t="s">
         <v>173</v>
       </c>
-      <c r="P31" t="s"/>
       <c r="Q31" t="s">
         <v>157</v>
       </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
-      <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
-      <c r="V31" t="s"/>
       <c r="W31">
         <v>43</v>
       </c>
       <c r="X31" t="s">
         <v>67</v>
       </c>
-      <c r="Y31" t="s"/>
-      <c r="Z31" t="s"/>
-      <c r="AA31" t="s"/>
-      <c r="AB31" t="s"/>
       <c r="AC31">
         <v>2003</v>
       </c>
@@ -3758,20 +3303,14 @@
       <c r="AI31">
         <v>19490</v>
       </c>
-      <c r="AJ31" t="s"/>
-      <c r="AK31" t="s"/>
-      <c r="AL31" t="s"/>
-      <c r="AM31" t="s"/>
-      <c r="AN31" t="s"/>
-      <c r="AO31" t="s"/>
       <c r="AP31">
         <v>4400000</v>
       </c>
       <c r="AQ31">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -3793,8 +3332,6 @@
       <c r="G32" t="s">
         <v>60</v>
       </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s"/>
       <c r="J32" t="s">
         <v>61</v>
       </c>
@@ -3813,52 +3350,32 @@
       <c r="O32" t="s">
         <v>175</v>
       </c>
-      <c r="P32" t="s"/>
       <c r="Q32" t="s">
         <v>157</v>
       </c>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
-      <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
-      <c r="V32" t="s"/>
-      <c r="W32" t="s"/>
       <c r="X32" t="s">
         <v>67</v>
       </c>
-      <c r="Y32" t="s"/>
-      <c r="Z32" t="s"/>
-      <c r="AA32" t="s"/>
-      <c r="AB32" t="s"/>
       <c r="AC32">
         <v>2003</v>
       </c>
       <c r="AD32">
         <v>7</v>
       </c>
-      <c r="AE32" t="s"/>
       <c r="AF32">
         <v>2003</v>
       </c>
       <c r="AG32">
         <v>7</v>
       </c>
-      <c r="AH32" t="s"/>
       <c r="AI32">
         <v>788</v>
       </c>
-      <c r="AJ32" t="s"/>
-      <c r="AK32" t="s"/>
-      <c r="AL32" t="s"/>
-      <c r="AM32" t="s"/>
-      <c r="AN32" t="s"/>
-      <c r="AO32" t="s"/>
-      <c r="AP32" t="s"/>
       <c r="AQ32">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -3880,8 +3397,6 @@
       <c r="G33" t="s">
         <v>60</v>
       </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s"/>
       <c r="J33" t="s">
         <v>61</v>
       </c>
@@ -3900,50 +3415,29 @@
       <c r="O33" t="s">
         <v>179</v>
       </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
-      <c r="V33" t="s"/>
-      <c r="W33" t="s"/>
       <c r="X33" t="s">
         <v>67</v>
       </c>
-      <c r="Y33" t="s"/>
-      <c r="Z33" t="s"/>
-      <c r="AA33" t="s"/>
-      <c r="AB33" t="s"/>
       <c r="AC33">
         <v>2003</v>
       </c>
       <c r="AD33">
         <v>7</v>
       </c>
-      <c r="AE33" t="s"/>
       <c r="AF33">
         <v>2003</v>
       </c>
       <c r="AG33">
         <v>7</v>
       </c>
-      <c r="AH33" t="s"/>
       <c r="AI33">
         <v>418</v>
       </c>
-      <c r="AJ33" t="s"/>
-      <c r="AK33" t="s"/>
-      <c r="AL33" t="s"/>
-      <c r="AM33" t="s"/>
-      <c r="AN33" t="s"/>
-      <c r="AO33" t="s"/>
-      <c r="AP33" t="s"/>
       <c r="AQ33">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -3965,8 +3459,6 @@
       <c r="G34" t="s">
         <v>60</v>
       </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s"/>
       <c r="J34" t="s">
         <v>61</v>
       </c>
@@ -3985,50 +3477,29 @@
       <c r="O34" t="s">
         <v>183</v>
       </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
-      <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
-      <c r="V34" t="s"/>
-      <c r="W34" t="s"/>
       <c r="X34" t="s">
         <v>67</v>
       </c>
-      <c r="Y34" t="s"/>
-      <c r="Z34" t="s"/>
-      <c r="AA34" t="s"/>
-      <c r="AB34" t="s"/>
       <c r="AC34">
         <v>2003</v>
       </c>
       <c r="AD34">
         <v>7</v>
       </c>
-      <c r="AE34" t="s"/>
       <c r="AF34">
         <v>2003</v>
       </c>
       <c r="AG34">
         <v>7</v>
       </c>
-      <c r="AH34" t="s"/>
       <c r="AI34">
         <v>301</v>
       </c>
-      <c r="AJ34" t="s"/>
-      <c r="AK34" t="s"/>
-      <c r="AL34" t="s"/>
-      <c r="AM34" t="s"/>
-      <c r="AN34" t="s"/>
-      <c r="AO34" t="s"/>
-      <c r="AP34" t="s"/>
       <c r="AQ34">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -4050,8 +3521,6 @@
       <c r="G35" t="s">
         <v>60</v>
       </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s"/>
       <c r="J35" t="s">
         <v>61</v>
       </c>
@@ -4070,23 +3539,12 @@
       <c r="O35" t="s">
         <v>189</v>
       </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
-      <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
-      <c r="V35" t="s"/>
       <c r="W35">
         <v>38</v>
       </c>
       <c r="X35" t="s">
         <v>67</v>
       </c>
-      <c r="Y35" t="s"/>
-      <c r="Z35" t="s"/>
-      <c r="AA35" t="s"/>
-      <c r="AB35" t="s"/>
       <c r="AC35">
         <v>2004</v>
       </c>
@@ -4102,22 +3560,14 @@
       <c r="AG35">
         <v>7</v>
       </c>
-      <c r="AH35" t="s"/>
       <c r="AI35">
         <v>3</v>
       </c>
-      <c r="AJ35" t="s"/>
-      <c r="AK35" t="s"/>
-      <c r="AL35" t="s"/>
-      <c r="AM35" t="s"/>
-      <c r="AN35" t="s"/>
-      <c r="AO35" t="s"/>
-      <c r="AP35" t="s"/>
       <c r="AQ35">
-        <v>73.8814124374447</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>73.881412437444695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -4139,8 +3589,6 @@
       <c r="G36" t="s">
         <v>60</v>
       </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s"/>
       <c r="J36" t="s">
         <v>61</v>
       </c>
@@ -4159,21 +3607,9 @@
       <c r="O36" t="s">
         <v>192</v>
       </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
-      <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
-      <c r="V36" t="s"/>
-      <c r="W36" t="s"/>
       <c r="X36" t="s">
         <v>67</v>
       </c>
-      <c r="Y36" t="s"/>
-      <c r="Z36" t="s"/>
-      <c r="AA36" t="s"/>
-      <c r="AB36" t="s"/>
       <c r="AC36">
         <v>2004</v>
       </c>
@@ -4195,18 +3631,11 @@
       <c r="AI36">
         <v>26</v>
       </c>
-      <c r="AJ36" t="s"/>
-      <c r="AK36" t="s"/>
-      <c r="AL36" t="s"/>
-      <c r="AM36" t="s"/>
-      <c r="AN36" t="s"/>
-      <c r="AO36" t="s"/>
-      <c r="AP36" t="s"/>
       <c r="AQ36">
-        <v>73.8814124374447</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>73.881412437444695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>193</v>
       </c>
@@ -4228,8 +3657,6 @@
       <c r="G37" t="s">
         <v>60</v>
       </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s"/>
       <c r="J37" t="s">
         <v>61</v>
       </c>
@@ -4248,56 +3675,38 @@
       <c r="O37" t="s">
         <v>196</v>
       </c>
-      <c r="P37" t="s"/>
       <c r="Q37" t="s">
         <v>157</v>
       </c>
       <c r="R37" t="s">
         <v>156</v>
       </c>
-      <c r="S37" t="s"/>
-      <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
-      <c r="V37" t="s"/>
-      <c r="W37" t="s"/>
       <c r="X37" t="s">
         <v>67</v>
       </c>
-      <c r="Y37" t="s"/>
-      <c r="Z37" t="s"/>
-      <c r="AA37" t="s"/>
-      <c r="AB37" t="s"/>
       <c r="AC37">
         <v>2003</v>
       </c>
       <c r="AD37">
         <v>7</v>
       </c>
-      <c r="AE37" t="s"/>
       <c r="AF37">
         <v>2003</v>
       </c>
       <c r="AG37">
         <v>8</v>
       </c>
-      <c r="AH37" t="s"/>
       <c r="AI37">
         <v>289</v>
       </c>
-      <c r="AJ37" t="s"/>
-      <c r="AK37" t="s"/>
-      <c r="AL37" t="s"/>
-      <c r="AM37" t="s"/>
-      <c r="AN37" t="s"/>
-      <c r="AO37" t="s"/>
       <c r="AP37">
         <v>80000</v>
       </c>
       <c r="AQ37">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>197</v>
       </c>
@@ -4319,8 +3728,6 @@
       <c r="G38" t="s">
         <v>60</v>
       </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s"/>
       <c r="J38" t="s">
         <v>61</v>
       </c>
@@ -4339,23 +3746,12 @@
       <c r="O38" t="s">
         <v>198</v>
       </c>
-      <c r="P38" t="s"/>
       <c r="Q38" t="s">
         <v>157</v>
       </c>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
-      <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
-      <c r="V38" t="s"/>
-      <c r="W38" t="s"/>
       <c r="X38" t="s">
         <v>67</v>
       </c>
-      <c r="Y38" t="s"/>
-      <c r="Z38" t="s"/>
-      <c r="AA38" t="s"/>
-      <c r="AB38" t="s"/>
       <c r="AC38">
         <v>2003</v>
       </c>
@@ -4377,20 +3773,14 @@
       <c r="AI38">
         <v>20089</v>
       </c>
-      <c r="AJ38" t="s"/>
-      <c r="AK38" t="s"/>
-      <c r="AL38" t="s"/>
-      <c r="AM38" t="s"/>
-      <c r="AN38" t="s"/>
-      <c r="AO38" t="s"/>
       <c r="AP38">
         <v>4400000</v>
       </c>
       <c r="AQ38">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -4412,8 +3802,6 @@
       <c r="G39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s"/>
       <c r="J39" t="s">
         <v>61</v>
       </c>
@@ -4432,52 +3820,32 @@
       <c r="O39" t="s">
         <v>202</v>
       </c>
-      <c r="P39" t="s"/>
       <c r="Q39" t="s">
         <v>157</v>
       </c>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
-      <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
-      <c r="V39" t="s"/>
-      <c r="W39" t="s"/>
       <c r="X39" t="s">
         <v>67</v>
       </c>
-      <c r="Y39" t="s"/>
-      <c r="Z39" t="s"/>
-      <c r="AA39" t="s"/>
-      <c r="AB39" t="s"/>
       <c r="AC39">
         <v>2003</v>
       </c>
       <c r="AD39">
         <v>7</v>
       </c>
-      <c r="AE39" t="s"/>
       <c r="AF39">
         <v>2003</v>
       </c>
       <c r="AG39">
         <v>8</v>
       </c>
-      <c r="AH39" t="s"/>
-      <c r="AI39" t="s"/>
-      <c r="AJ39" t="s"/>
-      <c r="AK39" t="s"/>
-      <c r="AL39" t="s"/>
-      <c r="AM39" t="s"/>
-      <c r="AN39" t="s"/>
-      <c r="AO39" t="s"/>
       <c r="AP39">
         <v>150000</v>
       </c>
       <c r="AQ39">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -4499,8 +3867,6 @@
       <c r="G40" t="s">
         <v>60</v>
       </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s"/>
       <c r="J40" t="s">
         <v>61</v>
       </c>
@@ -4519,50 +3885,29 @@
       <c r="O40" t="s">
         <v>206</v>
       </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
-      <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
-      <c r="V40" t="s"/>
-      <c r="W40" t="s"/>
       <c r="X40" t="s">
         <v>67</v>
       </c>
-      <c r="Y40" t="s"/>
-      <c r="Z40" t="s"/>
-      <c r="AA40" t="s"/>
-      <c r="AB40" t="s"/>
       <c r="AC40">
         <v>2003</v>
       </c>
       <c r="AD40">
         <v>7</v>
       </c>
-      <c r="AE40" t="s"/>
       <c r="AF40">
         <v>2003</v>
       </c>
       <c r="AG40">
         <v>7</v>
       </c>
-      <c r="AH40" t="s"/>
       <c r="AI40">
         <v>170</v>
       </c>
-      <c r="AJ40" t="s"/>
-      <c r="AK40" t="s"/>
-      <c r="AL40" t="s"/>
-      <c r="AM40" t="s"/>
-      <c r="AN40" t="s"/>
-      <c r="AO40" t="s"/>
-      <c r="AP40" t="s"/>
       <c r="AQ40">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>207</v>
       </c>
@@ -4584,8 +3929,6 @@
       <c r="G41" t="s">
         <v>60</v>
       </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s"/>
       <c r="J41" t="s">
         <v>61</v>
       </c>
@@ -4604,21 +3947,9 @@
       <c r="O41" t="s">
         <v>210</v>
       </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
-      <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
-      <c r="V41" t="s"/>
-      <c r="W41" t="s"/>
       <c r="X41" t="s">
         <v>67</v>
       </c>
-      <c r="Y41" t="s"/>
-      <c r="Z41" t="s"/>
-      <c r="AA41" t="s"/>
-      <c r="AB41" t="s"/>
       <c r="AC41">
         <v>2003</v>
       </c>
@@ -4640,18 +3971,11 @@
       <c r="AI41">
         <v>965</v>
       </c>
-      <c r="AJ41" t="s"/>
-      <c r="AK41" t="s"/>
-      <c r="AL41" t="s"/>
-      <c r="AM41" t="s"/>
-      <c r="AN41" t="s"/>
-      <c r="AO41" t="s"/>
-      <c r="AP41" t="s"/>
       <c r="AQ41">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -4673,8 +3997,6 @@
       <c r="G42" t="s">
         <v>60</v>
       </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s"/>
       <c r="J42" t="s">
         <v>61</v>
       </c>
@@ -4693,50 +4015,29 @@
       <c r="O42" t="s">
         <v>214</v>
       </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
-      <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
-      <c r="V42" t="s"/>
-      <c r="W42" t="s"/>
       <c r="X42" t="s">
         <v>67</v>
       </c>
-      <c r="Y42" t="s"/>
-      <c r="Z42" t="s"/>
-      <c r="AA42" t="s"/>
-      <c r="AB42" t="s"/>
       <c r="AC42">
         <v>2003</v>
       </c>
       <c r="AD42">
         <v>8</v>
       </c>
-      <c r="AE42" t="s"/>
       <c r="AF42">
         <v>2003</v>
       </c>
       <c r="AG42">
         <v>8</v>
       </c>
-      <c r="AH42" t="s"/>
       <c r="AI42">
         <v>2696</v>
       </c>
-      <c r="AJ42" t="s"/>
-      <c r="AK42" t="s"/>
-      <c r="AL42" t="s"/>
-      <c r="AM42" t="s"/>
-      <c r="AN42" t="s"/>
-      <c r="AO42" t="s"/>
-      <c r="AP42" t="s"/>
       <c r="AQ42">
-        <v>71.9550065545137</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>71.955006554513702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -4758,8 +4059,6 @@
       <c r="G43" t="s">
         <v>60</v>
       </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s"/>
       <c r="J43" t="s">
         <v>61</v>
       </c>
@@ -4778,23 +4077,12 @@
       <c r="O43" t="s">
         <v>218</v>
       </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
-      <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
-      <c r="V43" t="s"/>
       <c r="W43">
         <v>43</v>
       </c>
       <c r="X43" t="s">
         <v>67</v>
       </c>
-      <c r="Y43" t="s"/>
-      <c r="Z43" t="s"/>
-      <c r="AA43" t="s"/>
-      <c r="AB43" t="s"/>
       <c r="AC43">
         <v>2004</v>
       </c>
@@ -4810,22 +4098,14 @@
       <c r="AG43">
         <v>7</v>
       </c>
-      <c r="AH43" t="s"/>
       <c r="AI43">
         <v>15</v>
       </c>
-      <c r="AJ43" t="s"/>
-      <c r="AK43" t="s"/>
-      <c r="AL43" t="s"/>
-      <c r="AM43" t="s"/>
-      <c r="AN43" t="s"/>
-      <c r="AO43" t="s"/>
-      <c r="AP43" t="s"/>
       <c r="AQ43">
-        <v>73.8814124374447</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>73.881412437444695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>219</v>
       </c>
@@ -4847,8 +4127,6 @@
       <c r="G44" t="s">
         <v>60</v>
       </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s"/>
       <c r="J44" t="s">
         <v>61</v>
       </c>
@@ -4867,23 +4145,12 @@
       <c r="O44" t="s">
         <v>220</v>
       </c>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
-      <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
-      <c r="V44" t="s"/>
       <c r="W44">
         <v>38</v>
       </c>
       <c r="X44" t="s">
         <v>67</v>
       </c>
-      <c r="Y44" t="s"/>
-      <c r="Z44" t="s"/>
-      <c r="AA44" t="s"/>
-      <c r="AB44" t="s"/>
       <c r="AC44">
         <v>2004</v>
       </c>
@@ -4899,22 +4166,14 @@
       <c r="AG44">
         <v>7</v>
       </c>
-      <c r="AH44" t="s"/>
       <c r="AI44">
         <v>27</v>
       </c>
-      <c r="AJ44" t="s"/>
-      <c r="AK44" t="s"/>
-      <c r="AL44" t="s"/>
-      <c r="AM44" t="s"/>
-      <c r="AN44" t="s"/>
-      <c r="AO44" t="s"/>
-      <c r="AP44" t="s"/>
       <c r="AQ44">
-        <v>73.8814124374447</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>73.881412437444695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>221</v>
       </c>
@@ -4936,8 +4195,6 @@
       <c r="G45" t="s">
         <v>60</v>
       </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s"/>
       <c r="J45" t="s">
         <v>61</v>
       </c>
@@ -4956,23 +4213,12 @@
       <c r="O45" t="s">
         <v>224</v>
       </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
-      <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
-      <c r="V45" t="s"/>
       <c r="W45">
         <v>42</v>
       </c>
       <c r="X45" t="s">
         <v>67</v>
       </c>
-      <c r="Y45" t="s"/>
-      <c r="Z45" t="s"/>
-      <c r="AA45" t="s"/>
-      <c r="AB45" t="s"/>
       <c r="AC45">
         <v>2004</v>
       </c>
@@ -4997,19 +4243,14 @@
       <c r="AJ45">
         <v>113</v>
       </c>
-      <c r="AK45" t="s"/>
-      <c r="AL45" t="s"/>
       <c r="AM45">
         <v>113</v>
       </c>
-      <c r="AN45" t="s"/>
-      <c r="AO45" t="s"/>
-      <c r="AP45" t="s"/>
       <c r="AQ45">
-        <v>73.8814124374447</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>73.881412437444695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>225</v>
       </c>
@@ -5031,8 +4272,6 @@
       <c r="G46" t="s">
         <v>60</v>
       </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s"/>
       <c r="J46" t="s">
         <v>61</v>
       </c>
@@ -5051,50 +4290,29 @@
       <c r="O46" t="s">
         <v>227</v>
       </c>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
-      <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
-      <c r="V46" t="s"/>
-      <c r="W46" t="s"/>
       <c r="X46" t="s">
         <v>67</v>
       </c>
-      <c r="Y46" t="s"/>
-      <c r="Z46" t="s"/>
-      <c r="AA46" t="s"/>
-      <c r="AB46" t="s"/>
       <c r="AC46">
         <v>2006</v>
       </c>
       <c r="AD46">
         <v>6</v>
       </c>
-      <c r="AE46" t="s"/>
       <c r="AF46">
         <v>2006</v>
       </c>
       <c r="AG46">
         <v>7</v>
       </c>
-      <c r="AH46" t="s"/>
       <c r="AI46">
         <v>940</v>
       </c>
-      <c r="AJ46" t="s"/>
-      <c r="AK46" t="s"/>
-      <c r="AL46" t="s"/>
-      <c r="AM46" t="s"/>
-      <c r="AN46" t="s"/>
-      <c r="AO46" t="s"/>
-      <c r="AP46" t="s"/>
       <c r="AQ46">
         <v>78.8522555129301</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -5116,8 +4334,6 @@
       <c r="G47" t="s">
         <v>60</v>
       </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s"/>
       <c r="J47" t="s">
         <v>61</v>
       </c>
@@ -5136,21 +4352,9 @@
       <c r="O47" t="s">
         <v>229</v>
       </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
-      <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
-      <c r="V47" t="s"/>
-      <c r="W47" t="s"/>
       <c r="X47" t="s">
         <v>67</v>
       </c>
-      <c r="Y47" t="s"/>
-      <c r="Z47" t="s"/>
-      <c r="AA47" t="s"/>
-      <c r="AB47" t="s"/>
       <c r="AC47">
         <v>2006</v>
       </c>
@@ -5172,18 +4376,11 @@
       <c r="AI47">
         <v>2</v>
       </c>
-      <c r="AJ47" t="s"/>
-      <c r="AK47" t="s"/>
-      <c r="AL47" t="s"/>
-      <c r="AM47" t="s"/>
-      <c r="AN47" t="s"/>
-      <c r="AO47" t="s"/>
-      <c r="AP47" t="s"/>
       <c r="AQ47">
         <v>78.8522555129301</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>230</v>
       </c>
@@ -5205,8 +4402,6 @@
       <c r="G48" t="s">
         <v>60</v>
       </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s"/>
       <c r="J48" t="s">
         <v>61</v>
       </c>
@@ -5225,23 +4420,12 @@
       <c r="O48" t="s">
         <v>231</v>
       </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
-      <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
-      <c r="V48" t="s"/>
       <c r="W48">
         <v>40</v>
       </c>
       <c r="X48" t="s">
         <v>67</v>
       </c>
-      <c r="Y48" t="s"/>
-      <c r="Z48" t="s"/>
-      <c r="AA48" t="s"/>
-      <c r="AB48" t="s"/>
       <c r="AC48">
         <v>2006</v>
       </c>
@@ -5263,18 +4447,11 @@
       <c r="AI48">
         <v>21</v>
       </c>
-      <c r="AJ48" t="s"/>
-      <c r="AK48" t="s"/>
-      <c r="AL48" t="s"/>
-      <c r="AM48" t="s"/>
-      <c r="AN48" t="s"/>
-      <c r="AO48" t="s"/>
-      <c r="AP48" t="s"/>
       <c r="AQ48">
         <v>78.8522555129301</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -5296,8 +4473,6 @@
       <c r="G49" t="s">
         <v>60</v>
       </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s"/>
       <c r="J49" t="s">
         <v>61</v>
       </c>
@@ -5316,23 +4491,12 @@
       <c r="O49" t="s">
         <v>173</v>
       </c>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
-      <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
-      <c r="V49" t="s"/>
       <c r="W49">
         <v>37</v>
       </c>
       <c r="X49" t="s">
         <v>67</v>
       </c>
-      <c r="Y49" t="s"/>
-      <c r="Z49" t="s"/>
-      <c r="AA49" t="s"/>
-      <c r="AB49" t="s"/>
       <c r="AC49">
         <v>2006</v>
       </c>
@@ -5354,18 +4518,11 @@
       <c r="AI49">
         <v>1388</v>
       </c>
-      <c r="AJ49" t="s"/>
-      <c r="AK49" t="s"/>
-      <c r="AL49" t="s"/>
-      <c r="AM49" t="s"/>
-      <c r="AN49" t="s"/>
-      <c r="AO49" t="s"/>
-      <c r="AP49" t="s"/>
       <c r="AQ49">
         <v>78.8522555129301</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>233</v>
       </c>
@@ -5387,8 +4544,6 @@
       <c r="G50" t="s">
         <v>60</v>
       </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s"/>
       <c r="J50" t="s">
         <v>61</v>
       </c>
@@ -5407,50 +4562,29 @@
       <c r="O50" t="s">
         <v>236</v>
       </c>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
-      <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
-      <c r="V50" t="s"/>
-      <c r="W50" t="s"/>
       <c r="X50" t="s">
         <v>67</v>
       </c>
-      <c r="Y50" t="s"/>
-      <c r="Z50" t="s"/>
-      <c r="AA50" t="s"/>
-      <c r="AB50" t="s"/>
       <c r="AC50">
         <v>2005</v>
       </c>
       <c r="AD50">
         <v>6</v>
       </c>
-      <c r="AE50" t="s"/>
       <c r="AF50">
         <v>2005</v>
       </c>
       <c r="AG50">
         <v>8</v>
       </c>
-      <c r="AH50" t="s"/>
       <c r="AI50">
         <v>462</v>
       </c>
-      <c r="AJ50" t="s"/>
-      <c r="AK50" t="s"/>
-      <c r="AL50" t="s"/>
-      <c r="AM50" t="s"/>
-      <c r="AN50" t="s"/>
-      <c r="AO50" t="s"/>
-      <c r="AP50" t="s"/>
       <c r="AQ50">
-        <v>76.3880272118934</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>76.388027211893402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>237</v>
       </c>
@@ -5472,8 +4606,6 @@
       <c r="G51" t="s">
         <v>60</v>
       </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s"/>
       <c r="J51" t="s">
         <v>61</v>
       </c>
@@ -5492,23 +4624,12 @@
       <c r="O51" t="s">
         <v>239</v>
       </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
-      <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
-      <c r="V51" t="s"/>
       <c r="W51">
         <v>36</v>
       </c>
       <c r="X51" t="s">
         <v>67</v>
       </c>
-      <c r="Y51" t="s"/>
-      <c r="Z51" t="s"/>
-      <c r="AA51" t="s"/>
-      <c r="AB51" t="s"/>
       <c r="AC51">
         <v>2005</v>
       </c>
@@ -5533,19 +4654,14 @@
       <c r="AJ51">
         <v>500</v>
       </c>
-      <c r="AK51" t="s"/>
-      <c r="AL51" t="s"/>
       <c r="AM51">
         <v>500</v>
       </c>
-      <c r="AN51" t="s"/>
-      <c r="AO51" t="s"/>
-      <c r="AP51" t="s"/>
       <c r="AQ51">
-        <v>76.3880272118934</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>76.388027211893402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -5567,8 +4683,6 @@
       <c r="G52" t="s">
         <v>60</v>
       </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s"/>
       <c r="J52" t="s">
         <v>61</v>
       </c>
@@ -5587,23 +4701,12 @@
       <c r="O52" t="s">
         <v>210</v>
       </c>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
-      <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
-      <c r="V52" t="s"/>
       <c r="W52">
         <v>34</v>
       </c>
       <c r="X52" t="s">
         <v>67</v>
       </c>
-      <c r="Y52" t="s"/>
-      <c r="Z52" t="s"/>
-      <c r="AA52" t="s"/>
-      <c r="AB52" t="s"/>
       <c r="AC52">
         <v>2006</v>
       </c>
@@ -5625,18 +4728,11 @@
       <c r="AI52">
         <v>1000</v>
       </c>
-      <c r="AJ52" t="s"/>
-      <c r="AK52" t="s"/>
-      <c r="AL52" t="s"/>
-      <c r="AM52" t="s"/>
-      <c r="AN52" t="s"/>
-      <c r="AO52" t="s"/>
-      <c r="AP52" t="s"/>
       <c r="AQ52">
         <v>78.8522555129301</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>241</v>
       </c>
@@ -5658,8 +4754,6 @@
       <c r="G53" t="s">
         <v>60</v>
       </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s"/>
       <c r="J53" t="s">
         <v>61</v>
       </c>
@@ -5678,50 +4772,29 @@
       <c r="O53" t="s">
         <v>214</v>
       </c>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
-      <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
-      <c r="V53" t="s"/>
-      <c r="W53" t="s"/>
       <c r="X53" t="s">
         <v>67</v>
       </c>
-      <c r="Y53" t="s"/>
-      <c r="Z53" t="s"/>
-      <c r="AA53" t="s"/>
-      <c r="AB53" t="s"/>
       <c r="AC53">
         <v>2006</v>
       </c>
       <c r="AD53">
         <v>7</v>
       </c>
-      <c r="AE53" t="s"/>
       <c r="AF53">
         <v>2006</v>
       </c>
       <c r="AG53">
         <v>7</v>
       </c>
-      <c r="AH53" t="s"/>
       <c r="AI53">
         <v>41</v>
       </c>
-      <c r="AJ53" t="s"/>
-      <c r="AK53" t="s"/>
-      <c r="AL53" t="s"/>
-      <c r="AM53" t="s"/>
-      <c r="AN53" t="s"/>
-      <c r="AO53" t="s"/>
-      <c r="AP53" t="s"/>
       <c r="AQ53">
         <v>78.8522555129301</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>242</v>
       </c>
@@ -5743,8 +4816,6 @@
       <c r="G54" t="s">
         <v>60</v>
       </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s"/>
       <c r="J54" t="s">
         <v>61</v>
       </c>
@@ -5763,23 +4834,12 @@
       <c r="O54" t="s">
         <v>244</v>
       </c>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
-      <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
-      <c r="V54" t="s"/>
       <c r="W54">
         <v>36</v>
       </c>
       <c r="X54" t="s">
         <v>67</v>
       </c>
-      <c r="Y54" t="s"/>
-      <c r="Z54" t="s"/>
-      <c r="AA54" t="s"/>
-      <c r="AB54" t="s"/>
       <c r="AC54">
         <v>2006</v>
       </c>
@@ -5795,26 +4855,20 @@
       <c r="AG54">
         <v>7</v>
       </c>
-      <c r="AH54" t="s"/>
       <c r="AI54">
         <v>26</v>
       </c>
       <c r="AJ54">
         <v>200</v>
       </c>
-      <c r="AK54" t="s"/>
-      <c r="AL54" t="s"/>
       <c r="AM54">
         <v>200</v>
       </c>
-      <c r="AN54" t="s"/>
-      <c r="AO54" t="s"/>
-      <c r="AP54" t="s"/>
       <c r="AQ54">
         <v>78.8522555129301</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>245</v>
       </c>
@@ -5836,8 +4890,6 @@
       <c r="G55" t="s">
         <v>60</v>
       </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s"/>
       <c r="J55" t="s">
         <v>61</v>
       </c>
@@ -5856,62 +4908,47 @@
       <c r="O55" t="s">
         <v>248</v>
       </c>
-      <c r="P55" t="s"/>
       <c r="Q55" t="s">
         <v>156</v>
       </c>
       <c r="R55" t="s">
         <v>157</v>
       </c>
-      <c r="S55" t="s"/>
-      <c r="T55" t="s"/>
       <c r="U55" t="s">
         <v>249</v>
       </c>
-      <c r="V55" t="s"/>
       <c r="W55">
         <v>46</v>
       </c>
       <c r="X55" t="s">
         <v>67</v>
       </c>
-      <c r="Y55" t="s"/>
-      <c r="Z55" t="s"/>
-      <c r="AA55" t="s"/>
-      <c r="AB55" t="s"/>
       <c r="AC55">
         <v>2007</v>
       </c>
       <c r="AD55">
         <v>6</v>
       </c>
-      <c r="AE55" t="s"/>
       <c r="AF55">
         <v>2007</v>
       </c>
       <c r="AG55">
         <v>7</v>
       </c>
-      <c r="AH55" t="s"/>
       <c r="AI55">
         <v>2</v>
       </c>
       <c r="AJ55">
         <v>50</v>
       </c>
-      <c r="AK55" t="s"/>
-      <c r="AL55" t="s"/>
       <c r="AM55">
         <v>50</v>
       </c>
-      <c r="AN55" t="s"/>
-      <c r="AO55" t="s"/>
-      <c r="AP55" t="s"/>
       <c r="AQ55">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>250</v>
       </c>
@@ -5933,8 +4970,6 @@
       <c r="G56" t="s">
         <v>60</v>
       </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s"/>
       <c r="J56" t="s">
         <v>61</v>
       </c>
@@ -5953,21 +4988,9 @@
       <c r="O56" t="s">
         <v>251</v>
       </c>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
-      <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
-      <c r="V56" t="s"/>
-      <c r="W56" t="s"/>
       <c r="X56" t="s">
         <v>67</v>
       </c>
-      <c r="Y56" t="s"/>
-      <c r="Z56" t="s"/>
-      <c r="AA56" t="s"/>
-      <c r="AB56" t="s"/>
       <c r="AC56">
         <v>2007</v>
       </c>
@@ -5986,23 +5009,17 @@
       <c r="AH56">
         <v>22</v>
       </c>
-      <c r="AI56" t="s"/>
-      <c r="AJ56" t="s"/>
       <c r="AK56">
         <v>150</v>
       </c>
-      <c r="AL56" t="s"/>
       <c r="AM56">
         <v>150</v>
       </c>
-      <c r="AN56" t="s"/>
-      <c r="AO56" t="s"/>
-      <c r="AP56" t="s"/>
       <c r="AQ56">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>252</v>
       </c>
@@ -6024,8 +5041,6 @@
       <c r="G57" t="s">
         <v>60</v>
       </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s"/>
       <c r="J57" t="s">
         <v>61</v>
       </c>
@@ -6044,52 +5059,32 @@
       <c r="O57" t="s">
         <v>253</v>
       </c>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
-      <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
-      <c r="V57" t="s"/>
       <c r="W57">
         <v>39</v>
       </c>
       <c r="X57" t="s">
         <v>67</v>
       </c>
-      <c r="Y57" t="s"/>
-      <c r="Z57" t="s"/>
-      <c r="AA57" t="s"/>
-      <c r="AB57" t="s"/>
       <c r="AC57">
         <v>2007</v>
       </c>
       <c r="AD57">
         <v>7</v>
       </c>
-      <c r="AE57" t="s"/>
       <c r="AF57">
         <v>2007</v>
       </c>
       <c r="AG57">
         <v>7</v>
       </c>
-      <c r="AH57" t="s"/>
       <c r="AI57">
         <v>5</v>
       </c>
-      <c r="AJ57" t="s"/>
-      <c r="AK57" t="s"/>
-      <c r="AL57" t="s"/>
-      <c r="AM57" t="s"/>
-      <c r="AN57" t="s"/>
-      <c r="AO57" t="s"/>
-      <c r="AP57" t="s"/>
       <c r="AQ57">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>254</v>
       </c>
@@ -6111,8 +5106,6 @@
       <c r="G58" t="s">
         <v>60</v>
       </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s"/>
       <c r="J58" t="s">
         <v>61</v>
       </c>
@@ -6131,21 +5124,9 @@
       <c r="O58" t="s">
         <v>257</v>
       </c>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
-      <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
-      <c r="V58" t="s"/>
-      <c r="W58" t="s"/>
       <c r="X58" t="s">
         <v>67</v>
       </c>
-      <c r="Y58" t="s"/>
-      <c r="Z58" t="s"/>
-      <c r="AA58" t="s"/>
-      <c r="AB58" t="s"/>
       <c r="AC58">
         <v>2007</v>
       </c>
@@ -6164,19 +5145,11 @@
       <c r="AH58">
         <v>22</v>
       </c>
-      <c r="AI58" t="s"/>
-      <c r="AJ58" t="s"/>
-      <c r="AK58" t="s"/>
-      <c r="AL58" t="s"/>
-      <c r="AM58" t="s"/>
-      <c r="AN58" t="s"/>
-      <c r="AO58" t="s"/>
-      <c r="AP58" t="s"/>
       <c r="AQ58">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>258</v>
       </c>
@@ -6198,8 +5171,6 @@
       <c r="G59" t="s">
         <v>60</v>
       </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s"/>
       <c r="J59" t="s">
         <v>61</v>
       </c>
@@ -6218,54 +5189,35 @@
       <c r="O59" t="s">
         <v>259</v>
       </c>
-      <c r="P59" t="s"/>
       <c r="Q59" t="s">
         <v>156</v>
       </c>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
-      <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
-      <c r="V59" t="s"/>
       <c r="W59">
         <v>46</v>
       </c>
       <c r="X59" t="s">
         <v>67</v>
       </c>
-      <c r="Y59" t="s"/>
-      <c r="Z59" t="s"/>
-      <c r="AA59" t="s"/>
-      <c r="AB59" t="s"/>
       <c r="AC59">
         <v>2007</v>
       </c>
       <c r="AD59">
         <v>6</v>
       </c>
-      <c r="AE59" t="s"/>
       <c r="AF59">
         <v>2007</v>
       </c>
       <c r="AG59">
         <v>7</v>
       </c>
-      <c r="AH59" t="s"/>
       <c r="AI59">
         <v>16</v>
       </c>
-      <c r="AJ59" t="s"/>
-      <c r="AK59" t="s"/>
-      <c r="AL59" t="s"/>
-      <c r="AM59" t="s"/>
-      <c r="AN59" t="s"/>
-      <c r="AO59" t="s"/>
-      <c r="AP59" t="s"/>
       <c r="AQ59">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>260</v>
       </c>
@@ -6287,8 +5239,6 @@
       <c r="G60" t="s">
         <v>60</v>
       </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s"/>
       <c r="J60" t="s">
         <v>61</v>
       </c>
@@ -6307,54 +5257,35 @@
       <c r="O60" t="s">
         <v>261</v>
       </c>
-      <c r="P60" t="s"/>
       <c r="Q60" t="s">
         <v>156</v>
       </c>
-      <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
-      <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
-      <c r="V60" t="s"/>
       <c r="W60">
         <v>45</v>
       </c>
       <c r="X60" t="s">
         <v>67</v>
       </c>
-      <c r="Y60" t="s"/>
-      <c r="Z60" t="s"/>
-      <c r="AA60" t="s"/>
-      <c r="AB60" t="s"/>
       <c r="AC60">
         <v>2007</v>
       </c>
       <c r="AD60">
         <v>6</v>
       </c>
-      <c r="AE60" t="s"/>
       <c r="AF60">
         <v>2007</v>
       </c>
       <c r="AG60">
         <v>6</v>
       </c>
-      <c r="AH60" t="s"/>
       <c r="AI60">
         <v>6</v>
       </c>
-      <c r="AJ60" t="s"/>
-      <c r="AK60" t="s"/>
-      <c r="AL60" t="s"/>
-      <c r="AM60" t="s"/>
-      <c r="AN60" t="s"/>
-      <c r="AO60" t="s"/>
-      <c r="AP60" t="s"/>
       <c r="AQ60">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>262</v>
       </c>
@@ -6376,8 +5307,6 @@
       <c r="G61" t="s">
         <v>60</v>
       </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s"/>
       <c r="J61" t="s">
         <v>61</v>
       </c>
@@ -6396,58 +5325,41 @@
       <c r="O61" t="s">
         <v>263</v>
       </c>
-      <c r="P61" t="s"/>
       <c r="Q61" t="s">
         <v>156</v>
       </c>
-      <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
-      <c r="T61" t="s"/>
       <c r="U61" t="s">
         <v>249</v>
       </c>
-      <c r="V61" t="s"/>
       <c r="W61">
         <v>45</v>
       </c>
       <c r="X61" t="s">
         <v>67</v>
       </c>
-      <c r="Y61" t="s"/>
-      <c r="Z61" t="s"/>
-      <c r="AA61" t="s"/>
-      <c r="AB61" t="s"/>
       <c r="AC61">
         <v>2007</v>
       </c>
       <c r="AD61">
         <v>7</v>
       </c>
-      <c r="AE61" t="s"/>
       <c r="AF61">
         <v>2007</v>
       </c>
       <c r="AG61">
         <v>7</v>
       </c>
-      <c r="AH61" t="s"/>
-      <c r="AI61" t="s"/>
-      <c r="AJ61" t="s"/>
       <c r="AK61">
         <v>202</v>
       </c>
-      <c r="AL61" t="s"/>
       <c r="AM61">
         <v>202</v>
       </c>
-      <c r="AN61" t="s"/>
-      <c r="AO61" t="s"/>
-      <c r="AP61" t="s"/>
       <c r="AQ61">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>264</v>
       </c>
@@ -6469,8 +5381,6 @@
       <c r="G62" t="s">
         <v>60</v>
       </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s"/>
       <c r="J62" t="s">
         <v>61</v>
       </c>
@@ -6489,52 +5399,32 @@
       <c r="O62" t="s">
         <v>267</v>
       </c>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
-      <c r="S62" t="s"/>
-      <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
-      <c r="V62" t="s"/>
       <c r="W62">
         <v>42</v>
       </c>
       <c r="X62" t="s">
         <v>67</v>
       </c>
-      <c r="Y62" t="s"/>
-      <c r="Z62" t="s"/>
-      <c r="AA62" t="s"/>
-      <c r="AB62" t="s"/>
       <c r="AC62">
         <v>2007</v>
       </c>
       <c r="AD62">
         <v>7</v>
       </c>
-      <c r="AE62" t="s"/>
       <c r="AF62">
         <v>2007</v>
       </c>
       <c r="AG62">
         <v>7</v>
       </c>
-      <c r="AH62" t="s"/>
       <c r="AI62">
         <v>500</v>
       </c>
-      <c r="AJ62" t="s"/>
-      <c r="AK62" t="s"/>
-      <c r="AL62" t="s"/>
-      <c r="AM62" t="s"/>
-      <c r="AN62" t="s"/>
-      <c r="AO62" t="s"/>
-      <c r="AP62" t="s"/>
       <c r="AQ62">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>268</v>
       </c>
@@ -6556,8 +5446,6 @@
       <c r="G63" t="s">
         <v>60</v>
       </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s"/>
       <c r="J63" t="s">
         <v>61</v>
       </c>
@@ -6576,54 +5464,35 @@
       <c r="O63" t="s">
         <v>269</v>
       </c>
-      <c r="P63" t="s"/>
       <c r="Q63" t="s">
         <v>157</v>
       </c>
-      <c r="R63" t="s"/>
-      <c r="S63" t="s"/>
-      <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
-      <c r="V63" t="s"/>
       <c r="W63">
         <v>45</v>
       </c>
       <c r="X63" t="s">
         <v>67</v>
       </c>
-      <c r="Y63" t="s"/>
-      <c r="Z63" t="s"/>
-      <c r="AA63" t="s"/>
-      <c r="AB63" t="s"/>
       <c r="AC63">
         <v>2007</v>
       </c>
       <c r="AD63">
         <v>6</v>
       </c>
-      <c r="AE63" t="s"/>
       <c r="AF63">
         <v>2007</v>
       </c>
       <c r="AG63">
         <v>7</v>
       </c>
-      <c r="AH63" t="s"/>
       <c r="AI63">
         <v>30</v>
       </c>
-      <c r="AJ63" t="s"/>
-      <c r="AK63" t="s"/>
-      <c r="AL63" t="s"/>
-      <c r="AM63" t="s"/>
-      <c r="AN63" t="s"/>
-      <c r="AO63" t="s"/>
-      <c r="AP63" t="s"/>
       <c r="AQ63">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -6645,8 +5514,6 @@
       <c r="G64" t="s">
         <v>60</v>
       </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s"/>
       <c r="J64" t="s">
         <v>61</v>
       </c>
@@ -6665,52 +5532,32 @@
       <c r="O64" t="s">
         <v>273</v>
       </c>
-      <c r="P64" t="s"/>
       <c r="Q64" t="s">
         <v>156</v>
       </c>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
-      <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
-      <c r="V64" t="s"/>
       <c r="W64">
         <v>45</v>
       </c>
       <c r="X64" t="s">
         <v>67</v>
       </c>
-      <c r="Y64" t="s"/>
-      <c r="Z64" t="s"/>
-      <c r="AA64" t="s"/>
-      <c r="AB64" t="s"/>
       <c r="AC64">
         <v>2007</v>
       </c>
       <c r="AD64">
         <v>7</v>
       </c>
-      <c r="AE64" t="s"/>
       <c r="AF64">
         <v>2007</v>
       </c>
       <c r="AG64">
         <v>7</v>
       </c>
-      <c r="AH64" t="s"/>
-      <c r="AI64" t="s"/>
-      <c r="AJ64" t="s"/>
-      <c r="AK64" t="s"/>
-      <c r="AL64" t="s"/>
-      <c r="AM64" t="s"/>
-      <c r="AN64" t="s"/>
-      <c r="AO64" t="s"/>
-      <c r="AP64" t="s"/>
       <c r="AQ64">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>274</v>
       </c>
@@ -6732,8 +5579,6 @@
       <c r="G65" t="s">
         <v>60</v>
       </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s"/>
       <c r="J65" t="s">
         <v>61</v>
       </c>
@@ -6752,56 +5597,38 @@
       <c r="O65" t="s">
         <v>275</v>
       </c>
-      <c r="P65" t="s"/>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
-      <c r="S65" t="s"/>
-      <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
-      <c r="V65" t="s"/>
       <c r="W65">
         <v>40</v>
       </c>
       <c r="X65" t="s">
         <v>67</v>
       </c>
-      <c r="Y65" t="s"/>
-      <c r="Z65" t="s"/>
-      <c r="AA65" t="s"/>
-      <c r="AB65" t="s"/>
       <c r="AC65">
         <v>2007</v>
       </c>
       <c r="AD65">
         <v>7</v>
       </c>
-      <c r="AE65" t="s"/>
       <c r="AF65">
         <v>2007</v>
       </c>
       <c r="AG65">
         <v>7</v>
       </c>
-      <c r="AH65" t="s"/>
       <c r="AI65">
         <v>1</v>
       </c>
       <c r="AJ65">
         <v>89</v>
       </c>
-      <c r="AK65" t="s"/>
-      <c r="AL65" t="s"/>
       <c r="AM65">
         <v>89</v>
       </c>
-      <c r="AN65" t="s"/>
-      <c r="AO65" t="s"/>
-      <c r="AP65" t="s"/>
       <c r="AQ65">
-        <v>81.1016589316606</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>81.101658931660594</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -6823,8 +5650,6 @@
       <c r="G66" t="s">
         <v>60</v>
       </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s"/>
       <c r="J66" t="s">
         <v>61</v>
       </c>
@@ -6843,54 +5668,35 @@
       <c r="O66" t="s">
         <v>279</v>
       </c>
-      <c r="P66" t="s"/>
-      <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
-      <c r="S66" t="s"/>
-      <c r="T66" t="s"/>
-      <c r="U66" t="s"/>
-      <c r="V66" t="s"/>
       <c r="W66">
         <v>40</v>
       </c>
       <c r="X66" t="s">
         <v>67</v>
       </c>
-      <c r="Y66" t="s"/>
-      <c r="Z66" t="s"/>
-      <c r="AA66" t="s"/>
-      <c r="AB66" t="s"/>
       <c r="AC66">
         <v>2010</v>
       </c>
       <c r="AD66">
         <v>6</v>
       </c>
-      <c r="AE66" t="s"/>
       <c r="AF66">
         <v>2010</v>
       </c>
       <c r="AG66">
         <v>8</v>
       </c>
-      <c r="AH66" t="s"/>
       <c r="AI66">
         <v>55736</v>
       </c>
-      <c r="AJ66" t="s"/>
-      <c r="AK66" t="s"/>
-      <c r="AL66" t="s"/>
-      <c r="AM66" t="s"/>
-      <c r="AN66" t="s"/>
-      <c r="AO66" t="s"/>
       <c r="AP66">
         <v>400000</v>
       </c>
       <c r="AQ66">
-        <v>85.2920606019027</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>85.292060601902705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -6912,8 +5718,6 @@
       <c r="G67" t="s">
         <v>60</v>
       </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s"/>
       <c r="J67" t="s">
         <v>61</v>
       </c>
@@ -6932,23 +5736,12 @@
       <c r="O67" t="s">
         <v>283</v>
       </c>
-      <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
-      <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
-      <c r="V67" t="s"/>
       <c r="W67">
         <v>47</v>
       </c>
       <c r="X67" t="s">
         <v>67</v>
       </c>
-      <c r="Y67" t="s"/>
-      <c r="Z67" t="s"/>
-      <c r="AA67" t="s"/>
-      <c r="AB67" t="s"/>
       <c r="AC67">
         <v>2011</v>
       </c>
@@ -6970,18 +5763,11 @@
       <c r="AI67">
         <v>10</v>
       </c>
-      <c r="AJ67" t="s"/>
-      <c r="AK67" t="s"/>
-      <c r="AL67" t="s"/>
-      <c r="AM67" t="s"/>
-      <c r="AN67" t="s"/>
-      <c r="AO67" t="s"/>
-      <c r="AP67" t="s"/>
       <c r="AQ67">
-        <v>87.9846029188446</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>87.984602918844601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>284</v>
       </c>
@@ -7003,8 +5789,6 @@
       <c r="G68" t="s">
         <v>60</v>
       </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s"/>
       <c r="J68" t="s">
         <v>61</v>
       </c>
@@ -7023,52 +5807,32 @@
       <c r="O68" t="s">
         <v>183</v>
       </c>
-      <c r="P68" t="s"/>
-      <c r="Q68" t="s"/>
-      <c r="R68" t="s"/>
-      <c r="S68" t="s"/>
-      <c r="T68" t="s"/>
-      <c r="U68" t="s"/>
-      <c r="V68" t="s"/>
       <c r="W68">
         <v>40</v>
       </c>
       <c r="X68" t="s">
         <v>67</v>
       </c>
-      <c r="Y68" t="s"/>
-      <c r="Z68" t="s"/>
-      <c r="AA68" t="s"/>
-      <c r="AB68" t="s"/>
       <c r="AC68">
         <v>2013</v>
       </c>
       <c r="AD68">
         <v>7</v>
       </c>
-      <c r="AE68" t="s"/>
       <c r="AF68">
         <v>2013</v>
       </c>
       <c r="AG68">
         <v>7</v>
       </c>
-      <c r="AH68" t="s"/>
       <c r="AI68">
         <v>760</v>
       </c>
-      <c r="AJ68" t="s"/>
-      <c r="AK68" t="s"/>
-      <c r="AL68" t="s"/>
-      <c r="AM68" t="s"/>
-      <c r="AN68" t="s"/>
-      <c r="AO68" t="s"/>
-      <c r="AP68" t="s"/>
       <c r="AQ68">
-        <v>91.1207940325185</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>91.120794032518504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>287</v>
       </c>
@@ -7090,8 +5854,6 @@
       <c r="G69" t="s">
         <v>60</v>
       </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s"/>
       <c r="J69" t="s">
         <v>61</v>
       </c>
@@ -7110,21 +5872,9 @@
       <c r="O69" t="s">
         <v>290</v>
       </c>
-      <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
-      <c r="S69" t="s"/>
-      <c r="T69" t="s"/>
-      <c r="U69" t="s"/>
-      <c r="V69" t="s"/>
-      <c r="W69" t="s"/>
       <c r="X69" t="s">
         <v>67</v>
       </c>
-      <c r="Y69" t="s"/>
-      <c r="Z69" t="s"/>
-      <c r="AA69" t="s"/>
-      <c r="AB69" t="s"/>
       <c r="AC69">
         <v>2015</v>
       </c>
@@ -7146,18 +5896,11 @@
       <c r="AI69">
         <v>410</v>
       </c>
-      <c r="AJ69" t="s"/>
-      <c r="AK69" t="s"/>
-      <c r="AL69" t="s"/>
-      <c r="AM69" t="s"/>
-      <c r="AN69" t="s"/>
-      <c r="AO69" t="s"/>
-      <c r="AP69" t="s"/>
       <c r="AQ69">
-        <v>92.7088219860826</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>92.708821986082597</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>291</v>
       </c>
@@ -7179,8 +5922,6 @@
       <c r="G70" t="s">
         <v>60</v>
       </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s"/>
       <c r="J70" t="s">
         <v>61</v>
       </c>
@@ -7199,23 +5940,12 @@
       <c r="O70" t="s">
         <v>173</v>
       </c>
-      <c r="P70" t="s"/>
-      <c r="Q70" t="s"/>
-      <c r="R70" t="s"/>
-      <c r="S70" t="s"/>
-      <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
-      <c r="V70" t="s"/>
       <c r="W70">
         <v>40</v>
       </c>
       <c r="X70" t="s">
         <v>67</v>
       </c>
-      <c r="Y70" t="s"/>
-      <c r="Z70" t="s"/>
-      <c r="AA70" t="s"/>
-      <c r="AB70" t="s"/>
       <c r="AC70">
         <v>2015</v>
       </c>
@@ -7237,18 +5967,11 @@
       <c r="AI70">
         <v>3275</v>
       </c>
-      <c r="AJ70" t="s"/>
-      <c r="AK70" t="s"/>
-      <c r="AL70" t="s"/>
-      <c r="AM70" t="s"/>
-      <c r="AN70" t="s"/>
-      <c r="AO70" t="s"/>
-      <c r="AP70" t="s"/>
       <c r="AQ70">
-        <v>92.7088219860826</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>92.708821986082597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>292</v>
       </c>
@@ -7270,8 +5993,6 @@
       <c r="G71" t="s">
         <v>60</v>
       </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s"/>
       <c r="J71" t="s">
         <v>294</v>
       </c>
@@ -7287,49 +6008,26 @@
       <c r="N71" t="s">
         <v>65</v>
       </c>
-      <c r="O71" t="s"/>
-      <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
-      <c r="R71" t="s"/>
-      <c r="S71" t="s"/>
-      <c r="T71" t="s"/>
-      <c r="U71" t="s"/>
-      <c r="V71" t="s"/>
-      <c r="W71" t="s"/>
       <c r="X71" t="s">
         <v>67</v>
       </c>
-      <c r="Y71" t="s"/>
-      <c r="Z71" t="s"/>
-      <c r="AA71" t="s"/>
-      <c r="AB71" t="s"/>
       <c r="AC71">
         <v>2018</v>
       </c>
       <c r="AD71">
         <v>7</v>
       </c>
-      <c r="AE71" t="s"/>
       <c r="AF71">
         <v>2018</v>
       </c>
       <c r="AG71">
         <v>7</v>
       </c>
-      <c r="AH71" t="s"/>
-      <c r="AI71" t="s"/>
-      <c r="AJ71" t="s"/>
-      <c r="AK71" t="s"/>
-      <c r="AL71" t="s"/>
-      <c r="AM71" t="s"/>
-      <c r="AN71" t="s"/>
-      <c r="AO71" t="s"/>
-      <c r="AP71" t="s"/>
       <c r="AQ71">
-        <v>98.2199906178672</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>98.219990617867197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>295</v>
       </c>
@@ -7351,8 +6049,6 @@
       <c r="G72" t="s">
         <v>60</v>
       </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s"/>
       <c r="J72" t="s">
         <v>294</v>
       </c>
@@ -7368,51 +6064,29 @@
       <c r="N72" t="s">
         <v>65</v>
       </c>
-      <c r="O72" t="s"/>
-      <c r="P72" t="s"/>
-      <c r="Q72" t="s"/>
-      <c r="R72" t="s"/>
-      <c r="S72" t="s"/>
-      <c r="T72" t="s"/>
-      <c r="U72" t="s"/>
-      <c r="V72" t="s"/>
       <c r="W72">
         <v>38</v>
       </c>
       <c r="X72" t="s">
         <v>67</v>
       </c>
-      <c r="Y72" t="s"/>
-      <c r="Z72" t="s"/>
-      <c r="AA72" t="s"/>
-      <c r="AB72" t="s"/>
       <c r="AC72">
         <v>2018</v>
       </c>
       <c r="AD72">
         <v>7</v>
       </c>
-      <c r="AE72" t="s"/>
       <c r="AF72">
         <v>2018</v>
       </c>
       <c r="AG72">
         <v>7</v>
       </c>
-      <c r="AH72" t="s"/>
-      <c r="AI72" t="s"/>
-      <c r="AJ72" t="s"/>
-      <c r="AK72" t="s"/>
-      <c r="AL72" t="s"/>
-      <c r="AM72" t="s"/>
-      <c r="AN72" t="s"/>
-      <c r="AO72" t="s"/>
-      <c r="AP72" t="s"/>
       <c r="AQ72">
-        <v>98.2199906178672</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>98.219990617867197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>296</v>
       </c>
@@ -7434,8 +6108,6 @@
       <c r="G73" t="s">
         <v>60</v>
       </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s"/>
       <c r="J73" t="s">
         <v>294</v>
       </c>
@@ -7451,53 +6123,32 @@
       <c r="N73" t="s">
         <v>65</v>
       </c>
-      <c r="O73" t="s"/>
-      <c r="P73" t="s"/>
-      <c r="Q73" t="s"/>
-      <c r="R73" t="s"/>
-      <c r="S73" t="s"/>
-      <c r="T73" t="s"/>
-      <c r="U73" t="s"/>
-      <c r="V73" t="s"/>
       <c r="W73">
         <v>47</v>
       </c>
       <c r="X73" t="s">
         <v>67</v>
       </c>
-      <c r="Y73" t="s"/>
-      <c r="Z73" t="s"/>
-      <c r="AA73" t="s"/>
-      <c r="AB73" t="s"/>
       <c r="AC73">
         <v>2018</v>
       </c>
       <c r="AD73">
         <v>8</v>
       </c>
-      <c r="AE73" t="s"/>
       <c r="AF73">
         <v>2018</v>
       </c>
       <c r="AG73">
         <v>8</v>
       </c>
-      <c r="AH73" t="s"/>
       <c r="AI73">
         <v>9</v>
       </c>
-      <c r="AJ73" t="s"/>
-      <c r="AK73" t="s"/>
-      <c r="AL73" t="s"/>
-      <c r="AM73" t="s"/>
-      <c r="AN73" t="s"/>
-      <c r="AO73" t="s"/>
-      <c r="AP73" t="s"/>
       <c r="AQ73">
-        <v>98.2199906178672</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>98.219990617867197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>297</v>
       </c>
@@ -7519,8 +6170,6 @@
       <c r="G74" t="s">
         <v>60</v>
       </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s"/>
       <c r="J74" t="s">
         <v>294</v>
       </c>
@@ -7536,22 +6185,9 @@
       <c r="N74" t="s">
         <v>65</v>
       </c>
-      <c r="O74" t="s"/>
-      <c r="P74" t="s"/>
-      <c r="Q74" t="s"/>
-      <c r="R74" t="s"/>
-      <c r="S74" t="s"/>
-      <c r="T74" t="s"/>
-      <c r="U74" t="s"/>
-      <c r="V74" t="s"/>
-      <c r="W74" t="s"/>
       <c r="X74" t="s">
         <v>67</v>
       </c>
-      <c r="Y74" t="s"/>
-      <c r="Z74" t="s"/>
-      <c r="AA74" t="s"/>
-      <c r="AB74" t="s"/>
       <c r="AC74">
         <v>2019</v>
       </c>
@@ -7573,18 +6209,11 @@
       <c r="AI74">
         <v>1</v>
       </c>
-      <c r="AJ74" t="s"/>
-      <c r="AK74" t="s"/>
-      <c r="AL74" t="s"/>
-      <c r="AM74" t="s"/>
-      <c r="AN74" t="s"/>
-      <c r="AO74" t="s"/>
-      <c r="AP74" t="s"/>
       <c r="AQ74">
         <v>100</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>300</v>
       </c>
@@ -7606,8 +6235,6 @@
       <c r="G75" t="s">
         <v>60</v>
       </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s"/>
       <c r="J75" t="s">
         <v>61</v>
       </c>
@@ -7623,24 +6250,12 @@
       <c r="N75" t="s">
         <v>65</v>
       </c>
-      <c r="O75" t="s"/>
-      <c r="P75" t="s"/>
-      <c r="Q75" t="s"/>
-      <c r="R75" t="s"/>
-      <c r="S75" t="s"/>
-      <c r="T75" t="s"/>
-      <c r="U75" t="s"/>
-      <c r="V75" t="s"/>
       <c r="W75">
         <v>35</v>
       </c>
       <c r="X75" t="s">
         <v>67</v>
       </c>
-      <c r="Y75" t="s"/>
-      <c r="Z75" t="s"/>
-      <c r="AA75" t="s"/>
-      <c r="AB75" t="s"/>
       <c r="AC75">
         <v>2019</v>
       </c>
@@ -7662,18 +6277,11 @@
       <c r="AI75">
         <v>128</v>
       </c>
-      <c r="AJ75" t="s"/>
-      <c r="AK75" t="s"/>
-      <c r="AL75" t="s"/>
-      <c r="AM75" t="s"/>
-      <c r="AN75" t="s"/>
-      <c r="AO75" t="s"/>
-      <c r="AP75" t="s"/>
       <c r="AQ75">
         <v>100</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>302</v>
       </c>
@@ -7695,8 +6303,6 @@
       <c r="G76" t="s">
         <v>60</v>
       </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s"/>
       <c r="J76" t="s">
         <v>294</v>
       </c>
@@ -7712,26 +6318,15 @@
       <c r="N76" t="s">
         <v>65</v>
       </c>
-      <c r="O76" t="s"/>
-      <c r="P76" t="s"/>
-      <c r="Q76" t="s"/>
-      <c r="R76" t="s"/>
-      <c r="S76" t="s"/>
-      <c r="T76" t="s"/>
-      <c r="U76" t="s"/>
-      <c r="V76" t="s"/>
       <c r="W76">
         <v>41</v>
       </c>
       <c r="X76" t="s">
         <v>67</v>
       </c>
-      <c r="Y76" t="s"/>
-      <c r="Z76" t="s"/>
       <c r="AA76" t="s">
         <v>303</v>
       </c>
-      <c r="AB76" t="s"/>
       <c r="AC76">
         <v>2019</v>
       </c>
@@ -7753,18 +6348,11 @@
       <c r="AI76">
         <v>400</v>
       </c>
-      <c r="AJ76" t="s"/>
-      <c r="AK76" t="s"/>
-      <c r="AL76" t="s"/>
-      <c r="AM76" t="s"/>
-      <c r="AN76" t="s"/>
-      <c r="AO76" t="s"/>
-      <c r="AP76" t="s"/>
       <c r="AQ76">
         <v>100</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>304</v>
       </c>
@@ -7786,8 +6374,6 @@
       <c r="G77" t="s">
         <v>60</v>
       </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s"/>
       <c r="J77" t="s">
         <v>61</v>
       </c>
@@ -7803,24 +6389,12 @@
       <c r="N77" t="s">
         <v>65</v>
       </c>
-      <c r="O77" t="s"/>
-      <c r="P77" t="s"/>
-      <c r="Q77" t="s"/>
-      <c r="R77" t="s"/>
-      <c r="S77" t="s"/>
-      <c r="T77" t="s"/>
-      <c r="U77" t="s"/>
-      <c r="V77" t="s"/>
       <c r="W77">
         <v>39</v>
       </c>
       <c r="X77" t="s">
         <v>67</v>
       </c>
-      <c r="Y77" t="s"/>
-      <c r="Z77" t="s"/>
-      <c r="AA77" t="s"/>
-      <c r="AB77" t="s"/>
       <c r="AC77">
         <v>2019</v>
       </c>
@@ -7842,18 +6416,11 @@
       <c r="AI77">
         <v>4</v>
       </c>
-      <c r="AJ77" t="s"/>
-      <c r="AK77" t="s"/>
-      <c r="AL77" t="s"/>
-      <c r="AM77" t="s"/>
-      <c r="AN77" t="s"/>
-      <c r="AO77" t="s"/>
-      <c r="AP77" t="s"/>
       <c r="AQ77">
         <v>100</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>305</v>
       </c>
@@ -7875,8 +6442,6 @@
       <c r="G78" t="s">
         <v>60</v>
       </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s"/>
       <c r="J78" t="s">
         <v>294</v>
       </c>
@@ -7892,24 +6457,12 @@
       <c r="N78" t="s">
         <v>65</v>
       </c>
-      <c r="O78" t="s"/>
-      <c r="P78" t="s"/>
-      <c r="Q78" t="s"/>
-      <c r="R78" t="s"/>
-      <c r="S78" t="s"/>
-      <c r="T78" t="s"/>
-      <c r="U78" t="s"/>
-      <c r="V78" t="s"/>
       <c r="W78">
         <v>42</v>
       </c>
       <c r="X78" t="s">
         <v>67</v>
       </c>
-      <c r="Y78" t="s"/>
-      <c r="Z78" t="s"/>
-      <c r="AA78" t="s"/>
-      <c r="AB78" t="s"/>
       <c r="AC78">
         <v>2019</v>
       </c>
@@ -7928,19 +6481,11 @@
       <c r="AH78">
         <v>25</v>
       </c>
-      <c r="AI78" t="s"/>
-      <c r="AJ78" t="s"/>
-      <c r="AK78" t="s"/>
-      <c r="AL78" t="s"/>
-      <c r="AM78" t="s"/>
-      <c r="AN78" t="s"/>
-      <c r="AO78" t="s"/>
-      <c r="AP78" t="s"/>
       <c r="AQ78">
         <v>100</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -7962,8 +6507,6 @@
       <c r="G79" t="s">
         <v>60</v>
       </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s"/>
       <c r="J79" t="s">
         <v>61</v>
       </c>
@@ -7982,21 +6525,9 @@
       <c r="O79" t="s">
         <v>307</v>
       </c>
-      <c r="P79" t="s"/>
-      <c r="Q79" t="s"/>
-      <c r="R79" t="s"/>
-      <c r="S79" t="s"/>
-      <c r="T79" t="s"/>
-      <c r="U79" t="s"/>
-      <c r="V79" t="s"/>
-      <c r="W79" t="s"/>
       <c r="X79" t="s">
         <v>67</v>
       </c>
-      <c r="Y79" t="s"/>
-      <c r="Z79" t="s"/>
-      <c r="AA79" t="s"/>
-      <c r="AB79" t="s"/>
       <c r="AC79">
         <v>2019</v>
       </c>
@@ -8018,18 +6549,11 @@
       <c r="AI79">
         <v>2</v>
       </c>
-      <c r="AJ79" t="s"/>
-      <c r="AK79" t="s"/>
-      <c r="AL79" t="s"/>
-      <c r="AM79" t="s"/>
-      <c r="AN79" t="s"/>
-      <c r="AO79" t="s"/>
-      <c r="AP79" t="s"/>
       <c r="AQ79">
         <v>100</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>308</v>
       </c>
@@ -8051,8 +6575,6 @@
       <c r="G80" t="s">
         <v>60</v>
       </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s"/>
       <c r="J80" t="s">
         <v>294</v>
       </c>
@@ -8068,51 +6590,29 @@
       <c r="N80" t="s">
         <v>65</v>
       </c>
-      <c r="O80" t="s"/>
-      <c r="P80" t="s"/>
-      <c r="Q80" t="s"/>
-      <c r="R80" t="s"/>
-      <c r="S80" t="s"/>
-      <c r="T80" t="s"/>
-      <c r="U80" t="s"/>
-      <c r="V80" t="s"/>
       <c r="W80">
         <v>38</v>
       </c>
       <c r="X80" t="s">
         <v>67</v>
       </c>
-      <c r="Y80" t="s"/>
-      <c r="Z80" t="s"/>
-      <c r="AA80" t="s"/>
-      <c r="AB80" t="s"/>
       <c r="AC80">
         <v>2018</v>
       </c>
       <c r="AD80">
         <v>7</v>
       </c>
-      <c r="AE80" t="s"/>
       <c r="AF80">
         <v>2018</v>
       </c>
       <c r="AG80">
         <v>7</v>
       </c>
-      <c r="AH80" t="s"/>
-      <c r="AI80" t="s"/>
-      <c r="AJ80" t="s"/>
-      <c r="AK80" t="s"/>
-      <c r="AL80" t="s"/>
-      <c r="AM80" t="s"/>
-      <c r="AN80" t="s"/>
-      <c r="AO80" t="s"/>
-      <c r="AP80" t="s"/>
       <c r="AQ80">
-        <v>98.2199906178672</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>98.219990617867197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>309</v>
       </c>
@@ -8134,8 +6634,6 @@
       <c r="G81" t="s">
         <v>60</v>
       </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s"/>
       <c r="J81" t="s">
         <v>294</v>
       </c>
@@ -8151,51 +6649,29 @@
       <c r="N81" t="s">
         <v>65</v>
       </c>
-      <c r="O81" t="s"/>
-      <c r="P81" t="s"/>
-      <c r="Q81" t="s"/>
-      <c r="R81" t="s"/>
-      <c r="S81" t="s"/>
-      <c r="T81" t="s"/>
-      <c r="U81" t="s"/>
-      <c r="V81" t="s"/>
       <c r="W81">
         <v>33</v>
       </c>
       <c r="X81" t="s">
         <v>67</v>
       </c>
-      <c r="Y81" t="s"/>
-      <c r="Z81" t="s"/>
-      <c r="AA81" t="s"/>
-      <c r="AB81" t="s"/>
       <c r="AC81">
         <v>2018</v>
       </c>
       <c r="AD81">
         <v>7</v>
       </c>
-      <c r="AE81" t="s"/>
       <c r="AF81">
         <v>2018</v>
       </c>
       <c r="AG81">
         <v>7</v>
       </c>
-      <c r="AH81" t="s"/>
-      <c r="AI81" t="s"/>
-      <c r="AJ81" t="s"/>
-      <c r="AK81" t="s"/>
-      <c r="AL81" t="s"/>
-      <c r="AM81" t="s"/>
-      <c r="AN81" t="s"/>
-      <c r="AO81" t="s"/>
-      <c r="AP81" t="s"/>
       <c r="AQ81">
-        <v>98.2199906178672</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>98.219990617867197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>310</v>
       </c>
@@ -8217,8 +6693,6 @@
       <c r="G82" t="s">
         <v>60</v>
       </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s"/>
       <c r="J82" t="s">
         <v>294</v>
       </c>
@@ -8234,51 +6708,29 @@
       <c r="N82" t="s">
         <v>65</v>
       </c>
-      <c r="O82" t="s"/>
-      <c r="P82" t="s"/>
-      <c r="Q82" t="s"/>
-      <c r="R82" t="s"/>
-      <c r="S82" t="s"/>
-      <c r="T82" t="s"/>
-      <c r="U82" t="s"/>
-      <c r="V82" t="s"/>
       <c r="W82">
         <v>40</v>
       </c>
       <c r="X82" t="s">
         <v>67</v>
       </c>
-      <c r="Y82" t="s"/>
-      <c r="Z82" t="s"/>
-      <c r="AA82" t="s"/>
-      <c r="AB82" t="s"/>
       <c r="AC82">
         <v>2018</v>
       </c>
       <c r="AD82">
         <v>8</v>
       </c>
-      <c r="AE82" t="s"/>
       <c r="AF82">
         <v>2018</v>
       </c>
       <c r="AG82">
         <v>8</v>
       </c>
-      <c r="AH82" t="s"/>
-      <c r="AI82" t="s"/>
-      <c r="AJ82" t="s"/>
-      <c r="AK82" t="s"/>
-      <c r="AL82" t="s"/>
-      <c r="AM82" t="s"/>
-      <c r="AN82" t="s"/>
-      <c r="AO82" t="s"/>
-      <c r="AP82" t="s"/>
       <c r="AQ82">
-        <v>98.2199906178672</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>98.219990617867197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>311</v>
       </c>
@@ -8300,8 +6752,6 @@
       <c r="G83" t="s">
         <v>60</v>
       </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s"/>
       <c r="J83" t="s">
         <v>294</v>
       </c>
@@ -8317,49 +6767,26 @@
       <c r="N83" t="s">
         <v>65</v>
       </c>
-      <c r="O83" t="s"/>
-      <c r="P83" t="s"/>
-      <c r="Q83" t="s"/>
-      <c r="R83" t="s"/>
-      <c r="S83" t="s"/>
-      <c r="T83" t="s"/>
-      <c r="U83" t="s"/>
-      <c r="V83" t="s"/>
-      <c r="W83" t="s"/>
       <c r="X83" t="s">
         <v>67</v>
       </c>
-      <c r="Y83" t="s"/>
-      <c r="Z83" t="s"/>
-      <c r="AA83" t="s"/>
-      <c r="AB83" t="s"/>
       <c r="AC83">
         <v>2018</v>
       </c>
       <c r="AD83">
         <v>7</v>
       </c>
-      <c r="AE83" t="s"/>
       <c r="AF83">
         <v>2018</v>
       </c>
       <c r="AG83">
         <v>7</v>
       </c>
-      <c r="AH83" t="s"/>
-      <c r="AI83" t="s"/>
-      <c r="AJ83" t="s"/>
-      <c r="AK83" t="s"/>
-      <c r="AL83" t="s"/>
-      <c r="AM83" t="s"/>
-      <c r="AN83" t="s"/>
-      <c r="AO83" t="s"/>
-      <c r="AP83" t="s"/>
       <c r="AQ83">
-        <v>98.2199906178672</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>98.219990617867197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>312</v>
       </c>
@@ -8381,8 +6808,6 @@
       <c r="G84" t="s">
         <v>60</v>
       </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s"/>
       <c r="J84" t="s">
         <v>294</v>
       </c>
@@ -8398,51 +6823,29 @@
       <c r="N84" t="s">
         <v>65</v>
       </c>
-      <c r="O84" t="s"/>
-      <c r="P84" t="s"/>
-      <c r="Q84" t="s"/>
-      <c r="R84" t="s"/>
-      <c r="S84" t="s"/>
-      <c r="T84" t="s"/>
-      <c r="U84" t="s"/>
-      <c r="V84" t="s"/>
       <c r="W84">
         <v>45</v>
       </c>
       <c r="X84" t="s">
         <v>67</v>
       </c>
-      <c r="Y84" t="s"/>
-      <c r="Z84" t="s"/>
-      <c r="AA84" t="s"/>
-      <c r="AB84" t="s"/>
       <c r="AC84">
         <v>2018</v>
       </c>
       <c r="AD84">
         <v>8</v>
       </c>
-      <c r="AE84" t="s"/>
       <c r="AF84">
         <v>2018</v>
       </c>
       <c r="AG84">
         <v>8</v>
       </c>
-      <c r="AH84" t="s"/>
-      <c r="AI84" t="s"/>
-      <c r="AJ84" t="s"/>
-      <c r="AK84" t="s"/>
-      <c r="AL84" t="s"/>
-      <c r="AM84" t="s"/>
-      <c r="AN84" t="s"/>
-      <c r="AO84" t="s"/>
-      <c r="AP84" t="s"/>
       <c r="AQ84">
-        <v>98.2199906178672</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>98.219990617867197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>313</v>
       </c>
@@ -8464,8 +6867,6 @@
       <c r="G85" t="s">
         <v>60</v>
       </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s"/>
       <c r="J85" t="s">
         <v>61</v>
       </c>
@@ -8484,23 +6885,12 @@
       <c r="O85" t="s">
         <v>314</v>
       </c>
-      <c r="P85" t="s"/>
-      <c r="Q85" t="s"/>
-      <c r="R85" t="s"/>
-      <c r="S85" t="s"/>
-      <c r="T85" t="s"/>
-      <c r="U85" t="s"/>
-      <c r="V85" t="s"/>
       <c r="W85">
         <v>46</v>
       </c>
       <c r="X85" t="s">
         <v>67</v>
       </c>
-      <c r="Y85" t="s"/>
-      <c r="Z85" t="s"/>
-      <c r="AA85" t="s"/>
-      <c r="AB85" t="s"/>
       <c r="AC85">
         <v>2019</v>
       </c>
@@ -8522,18 +6912,11 @@
       <c r="AI85">
         <v>567</v>
       </c>
-      <c r="AJ85" t="s"/>
-      <c r="AK85" t="s"/>
-      <c r="AL85" t="s"/>
-      <c r="AM85" t="s"/>
-      <c r="AN85" t="s"/>
-      <c r="AO85" t="s"/>
-      <c r="AP85" t="s"/>
       <c r="AQ85">
         <v>100</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>315</v>
       </c>
@@ -8555,8 +6938,6 @@
       <c r="G86" t="s">
         <v>60</v>
       </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s"/>
       <c r="J86" t="s">
         <v>294</v>
       </c>
@@ -8575,23 +6956,12 @@
       <c r="O86" t="s">
         <v>316</v>
       </c>
-      <c r="P86" t="s"/>
-      <c r="Q86" t="s"/>
-      <c r="R86" t="s"/>
-      <c r="S86" t="s"/>
-      <c r="T86" t="s"/>
-      <c r="U86" t="s"/>
-      <c r="V86" t="s"/>
       <c r="W86">
         <v>44</v>
       </c>
       <c r="X86" t="s">
         <v>67</v>
       </c>
-      <c r="Y86" t="s"/>
-      <c r="Z86" t="s"/>
-      <c r="AA86" t="s"/>
-      <c r="AB86" t="s"/>
       <c r="AC86">
         <v>2019</v>
       </c>
@@ -8613,18 +6983,11 @@
       <c r="AI86">
         <v>868</v>
       </c>
-      <c r="AJ86" t="s"/>
-      <c r="AK86" t="s"/>
-      <c r="AL86" t="s"/>
-      <c r="AM86" t="s"/>
-      <c r="AN86" t="s"/>
-      <c r="AO86" t="s"/>
-      <c r="AP86" t="s"/>
       <c r="AQ86">
         <v>100</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>317</v>
       </c>
@@ -8646,8 +7009,6 @@
       <c r="G87" t="s">
         <v>60</v>
       </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s"/>
       <c r="J87" t="s">
         <v>61</v>
       </c>
@@ -8666,21 +7027,9 @@
       <c r="O87" t="s">
         <v>318</v>
       </c>
-      <c r="P87" t="s"/>
-      <c r="Q87" t="s"/>
-      <c r="R87" t="s"/>
-      <c r="S87" t="s"/>
-      <c r="T87" t="s"/>
-      <c r="U87" t="s"/>
-      <c r="V87" t="s"/>
-      <c r="W87" t="s"/>
       <c r="X87" t="s">
         <v>67</v>
       </c>
-      <c r="Y87" t="s"/>
-      <c r="Z87" t="s"/>
-      <c r="AA87" t="s"/>
-      <c r="AB87" t="s"/>
       <c r="AC87">
         <v>2019</v>
       </c>
@@ -8702,18 +7051,11 @@
       <c r="AI87">
         <v>5</v>
       </c>
-      <c r="AJ87" t="s"/>
-      <c r="AK87" t="s"/>
-      <c r="AL87" t="s"/>
-      <c r="AM87" t="s"/>
-      <c r="AN87" t="s"/>
-      <c r="AO87" t="s"/>
-      <c r="AP87" t="s"/>
       <c r="AQ87">
         <v>100</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>319</v>
       </c>
@@ -8735,8 +7077,6 @@
       <c r="G88" t="s">
         <v>60</v>
       </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s"/>
       <c r="J88" t="s">
         <v>61</v>
       </c>
@@ -8755,21 +7095,9 @@
       <c r="O88" t="s">
         <v>320</v>
       </c>
-      <c r="P88" t="s"/>
-      <c r="Q88" t="s"/>
-      <c r="R88" t="s"/>
-      <c r="S88" t="s"/>
-      <c r="T88" t="s"/>
-      <c r="U88" t="s"/>
-      <c r="V88" t="s"/>
-      <c r="W88" t="s"/>
       <c r="X88" t="s">
         <v>67</v>
       </c>
-      <c r="Y88" t="s"/>
-      <c r="Z88" t="s"/>
-      <c r="AA88" t="s"/>
-      <c r="AB88" t="s"/>
       <c r="AC88">
         <v>2019</v>
       </c>
@@ -8791,18 +7119,11 @@
       <c r="AI88">
         <v>3</v>
       </c>
-      <c r="AJ88" t="s"/>
-      <c r="AK88" t="s"/>
-      <c r="AL88" t="s"/>
-      <c r="AM88" t="s"/>
-      <c r="AN88" t="s"/>
-      <c r="AO88" t="s"/>
-      <c r="AP88" t="s"/>
       <c r="AQ88">
         <v>100</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>321</v>
       </c>
@@ -8824,8 +7145,6 @@
       <c r="G89" t="s">
         <v>60</v>
       </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s"/>
       <c r="J89" t="s">
         <v>294</v>
       </c>
@@ -8841,24 +7160,12 @@
       <c r="N89" t="s">
         <v>65</v>
       </c>
-      <c r="O89" t="s"/>
-      <c r="P89" t="s"/>
-      <c r="Q89" t="s"/>
-      <c r="R89" t="s"/>
-      <c r="S89" t="s"/>
-      <c r="T89" t="s"/>
-      <c r="U89" t="s"/>
-      <c r="V89" t="s"/>
       <c r="W89">
         <v>40</v>
       </c>
       <c r="X89" t="s">
         <v>67</v>
       </c>
-      <c r="Y89" t="s"/>
-      <c r="Z89" t="s"/>
-      <c r="AA89" t="s"/>
-      <c r="AB89" t="s"/>
       <c r="AC89">
         <v>2019</v>
       </c>
@@ -8880,18 +7187,11 @@
       <c r="AI89">
         <v>400</v>
       </c>
-      <c r="AJ89" t="s"/>
-      <c r="AK89" t="s"/>
-      <c r="AL89" t="s"/>
-      <c r="AM89" t="s"/>
-      <c r="AN89" t="s"/>
-      <c r="AO89" t="s"/>
-      <c r="AP89" t="s"/>
       <c r="AQ89">
         <v>100</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -8913,8 +7213,6 @@
       <c r="G90" t="s">
         <v>60</v>
       </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s"/>
       <c r="J90" t="s">
         <v>61</v>
       </c>
@@ -8930,24 +7228,12 @@
       <c r="N90" t="s">
         <v>65</v>
       </c>
-      <c r="O90" t="s"/>
-      <c r="P90" t="s"/>
-      <c r="Q90" t="s"/>
-      <c r="R90" t="s"/>
-      <c r="S90" t="s"/>
-      <c r="T90" t="s"/>
-      <c r="U90" t="s"/>
-      <c r="V90" t="s"/>
       <c r="W90">
         <v>35</v>
       </c>
       <c r="X90" t="s">
         <v>67</v>
       </c>
-      <c r="Y90" t="s"/>
-      <c r="Z90" t="s"/>
-      <c r="AA90" t="s"/>
-      <c r="AB90" t="s"/>
       <c r="AC90">
         <v>2019</v>
       </c>
@@ -8969,18 +7255,11 @@
       <c r="AI90">
         <v>188</v>
       </c>
-      <c r="AJ90" t="s"/>
-      <c r="AK90" t="s"/>
-      <c r="AL90" t="s"/>
-      <c r="AM90" t="s"/>
-      <c r="AN90" t="s"/>
-      <c r="AO90" t="s"/>
-      <c r="AP90" t="s"/>
       <c r="AQ90">
         <v>100</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -9002,8 +7281,6 @@
       <c r="G91" t="s">
         <v>60</v>
       </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s"/>
       <c r="J91" t="s">
         <v>61</v>
       </c>
@@ -9019,24 +7296,12 @@
       <c r="N91" t="s">
         <v>65</v>
       </c>
-      <c r="O91" t="s"/>
-      <c r="P91" t="s"/>
-      <c r="Q91" t="s"/>
-      <c r="R91" t="s"/>
-      <c r="S91" t="s"/>
-      <c r="T91" t="s"/>
-      <c r="U91" t="s"/>
-      <c r="V91" t="s"/>
       <c r="W91">
         <v>39</v>
       </c>
       <c r="X91" t="s">
         <v>67</v>
       </c>
-      <c r="Y91" t="s"/>
-      <c r="Z91" t="s"/>
-      <c r="AA91" t="s"/>
-      <c r="AB91" t="s"/>
       <c r="AC91">
         <v>2019</v>
       </c>
@@ -9055,19 +7320,11 @@
       <c r="AH91">
         <v>29</v>
       </c>
-      <c r="AI91" t="s"/>
-      <c r="AJ91" t="s"/>
-      <c r="AK91" t="s"/>
-      <c r="AL91" t="s"/>
-      <c r="AM91" t="s"/>
-      <c r="AN91" t="s"/>
-      <c r="AO91" t="s"/>
-      <c r="AP91" t="s"/>
       <c r="AQ91">
         <v>100</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>325</v>
       </c>
@@ -9089,8 +7346,6 @@
       <c r="G92" t="s">
         <v>60</v>
       </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s"/>
       <c r="J92" t="s">
         <v>61</v>
       </c>
@@ -9106,22 +7361,9 @@
       <c r="N92" t="s">
         <v>65</v>
       </c>
-      <c r="O92" t="s"/>
-      <c r="P92" t="s"/>
-      <c r="Q92" t="s"/>
-      <c r="R92" t="s"/>
-      <c r="S92" t="s"/>
-      <c r="T92" t="s"/>
-      <c r="U92" t="s"/>
-      <c r="V92" t="s"/>
-      <c r="W92" t="s"/>
       <c r="X92" t="s">
         <v>67</v>
       </c>
-      <c r="Y92" t="s"/>
-      <c r="Z92" t="s"/>
-      <c r="AA92" t="s"/>
-      <c r="AB92" t="s"/>
       <c r="AC92">
         <v>2020</v>
       </c>
@@ -9143,16 +7385,8 @@
       <c r="AI92">
         <v>1460</v>
       </c>
-      <c r="AJ92" t="s"/>
-      <c r="AK92" t="s"/>
-      <c r="AL92" t="s"/>
-      <c r="AM92" t="s"/>
-      <c r="AN92" t="s"/>
-      <c r="AO92" t="s"/>
-      <c r="AP92" t="s"/>
-      <c r="AQ92" t="s"/>
-    </row>
-    <row r="93">
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>328</v>
       </c>
@@ -9174,8 +7408,6 @@
       <c r="G93" t="s">
         <v>60</v>
       </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s"/>
       <c r="J93" t="s">
         <v>61</v>
       </c>
@@ -9191,22 +7423,9 @@
       <c r="N93" t="s">
         <v>65</v>
       </c>
-      <c r="O93" t="s"/>
-      <c r="P93" t="s"/>
-      <c r="Q93" t="s"/>
-      <c r="R93" t="s"/>
-      <c r="S93" t="s"/>
-      <c r="T93" t="s"/>
-      <c r="U93" t="s"/>
-      <c r="V93" t="s"/>
-      <c r="W93" t="s"/>
       <c r="X93" t="s">
         <v>67</v>
       </c>
-      <c r="Y93" t="s"/>
-      <c r="Z93" t="s"/>
-      <c r="AA93" t="s"/>
-      <c r="AB93" t="s"/>
       <c r="AC93">
         <v>2020</v>
       </c>
@@ -9228,16 +7447,8 @@
       <c r="AI93">
         <v>1924</v>
       </c>
-      <c r="AJ93" t="s"/>
-      <c r="AK93" t="s"/>
-      <c r="AL93" t="s"/>
-      <c r="AM93" t="s"/>
-      <c r="AN93" t="s"/>
-      <c r="AO93" t="s"/>
-      <c r="AP93" t="s"/>
-      <c r="AQ93" t="s"/>
-    </row>
-    <row r="94">
+    </row>
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>329</v>
       </c>
@@ -9259,8 +7470,6 @@
       <c r="G94" t="s">
         <v>60</v>
       </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s"/>
       <c r="J94" t="s">
         <v>61</v>
       </c>
@@ -9276,49 +7485,26 @@
       <c r="N94" t="s">
         <v>65</v>
       </c>
-      <c r="O94" t="s"/>
-      <c r="P94" t="s"/>
-      <c r="Q94" t="s"/>
-      <c r="R94" t="s"/>
-      <c r="S94" t="s"/>
-      <c r="T94" t="s"/>
-      <c r="U94" t="s"/>
-      <c r="V94" t="s"/>
-      <c r="W94" t="s"/>
       <c r="X94" t="s">
         <v>67</v>
       </c>
-      <c r="Y94" t="s"/>
-      <c r="Z94" t="s"/>
-      <c r="AA94" t="s"/>
-      <c r="AB94" t="s"/>
       <c r="AC94">
         <v>2020</v>
       </c>
       <c r="AD94">
         <v>6</v>
       </c>
-      <c r="AE94" t="s"/>
       <c r="AF94">
         <v>2020</v>
       </c>
       <c r="AG94">
         <v>8</v>
       </c>
-      <c r="AH94" t="s"/>
       <c r="AI94">
         <v>2556</v>
       </c>
-      <c r="AJ94" t="s"/>
-      <c r="AK94" t="s"/>
-      <c r="AL94" t="s"/>
-      <c r="AM94" t="s"/>
-      <c r="AN94" t="s"/>
-      <c r="AO94" t="s"/>
-      <c r="AP94" t="s"/>
-      <c r="AQ94" t="s"/>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>330</v>
       </c>
@@ -9340,8 +7526,6 @@
       <c r="G95" t="s">
         <v>60</v>
       </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s"/>
       <c r="J95" t="s">
         <v>61</v>
       </c>
@@ -9357,22 +7541,9 @@
       <c r="N95" t="s">
         <v>65</v>
       </c>
-      <c r="O95" t="s"/>
-      <c r="P95" t="s"/>
-      <c r="Q95" t="s"/>
-      <c r="R95" t="s"/>
-      <c r="S95" t="s"/>
-      <c r="T95" t="s"/>
-      <c r="U95" t="s"/>
-      <c r="V95" t="s"/>
-      <c r="W95" t="s"/>
       <c r="X95" t="s">
         <v>67</v>
       </c>
-      <c r="Y95" t="s"/>
-      <c r="Z95" t="s"/>
-      <c r="AA95" t="s"/>
-      <c r="AB95" t="s"/>
       <c r="AC95">
         <v>2020</v>
       </c>
@@ -9394,28 +7565,19 @@
       <c r="AI95">
         <v>400</v>
       </c>
-      <c r="AJ95" t="s"/>
-      <c r="AK95" t="s"/>
-      <c r="AL95" t="s"/>
-      <c r="AM95" t="s"/>
-      <c r="AN95" t="s"/>
-      <c r="AO95" t="s"/>
-      <c r="AP95" t="s"/>
-      <c r="AQ95" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
